--- a/src/test/resources/converter/artfruit/out/art_fruit_out.xlsx
+++ b/src/test/resources/converter/artfruit/out/art_fruit_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\1_PROJECTS\AdvantumConverter\src\test\resources\converter\artfruit\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5539B0-8D0D-402B-B2B2-D5A81B2C9295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D737B6D-4330-4CB7-A911-60C88E570D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экспорт" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="168">
-  <si>
-    <t>6_40677</t>
-  </si>
-  <si>
-    <t>Артфрут</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="171">
+  <si>
+    <t>6_40789</t>
+  </si>
+  <si>
+    <t>АртФрут</t>
   </si>
   <si>
     <t>Рефрижератор</t>
@@ -43,10 +43,151 @@
     <t>Погрузка</t>
   </si>
   <si>
-    <t>М617ОЕ799</t>
-  </si>
-  <si>
-    <t>Дубов Денис Александрович</t>
+    <t>М657ОЕ799</t>
+  </si>
+  <si>
+    <t>Загидов Руслан Османович</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. 7-я Кожуховская, д. 9</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. 7-я Кожуховская, д. 9</t>
+  </si>
+  <si>
+    <t>Разгрузка</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. Гурьянова, д. 2 лит. А</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Гурьянова, д. 2 лит. А</t>
+  </si>
+  <si>
+    <t>ФК "ЭКЗОТИКА"_г. Москва, Автомобильный проезд, 10с14</t>
+  </si>
+  <si>
+    <t>г. Москва, Автомобильный проезд, 10с14</t>
+  </si>
+  <si>
+    <t>АЗБУКА ВКУСА ПРОИЗВОДСТВО_г. Москва, ул. Талалихина д.41 стр.57</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Талалихина д.41 стр.57</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. Бауманская, д.32, стр.2</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Бауманская, д.32, стр.2</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, пр-кт Буденного, д.18,Б</t>
+  </si>
+  <si>
+    <t>г. Москва, пр-кт Буденного, д.18,Б</t>
+  </si>
+  <si>
+    <t>САНТОРГ_г. Москва, Семеновская пл., д. 1, пом. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, Семеновская пл., д. 1, пом. 1</t>
+  </si>
+  <si>
+    <t>Технический контрагент для заказов_ г. Москва, Рязанский проспект, д. 27</t>
+  </si>
+  <si>
+    <t>г. Москва, Рязанский проспект, д. 27</t>
+  </si>
+  <si>
+    <t>АШАН-МАГАЗИНЫ_г. Москва, ул. Вавилова д. 3</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Вавилова д. 3</t>
+  </si>
+  <si>
+    <t>23_40789</t>
+  </si>
+  <si>
+    <t>Р703УР799</t>
+  </si>
+  <si>
+    <t>Александров Роман Сергеевич</t>
+  </si>
+  <si>
+    <t>ЦСЭМ "Московский"_М.О., Одинцовский г.о., д. Вырубово д.70</t>
+  </si>
+  <si>
+    <t>М.О., Одинцовский г.о., д. Вырубово д.70</t>
+  </si>
+  <si>
+    <t>Арника_г. Москва, ул. Рябиновая д. 32</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д. 32</t>
+  </si>
+  <si>
+    <t>РОБИНСОН_г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
+  </si>
+  <si>
+    <t>АКАССИЯ_г. Москва, ул. Рябиновая д.44 стр 28</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д.44 стр 28</t>
+  </si>
+  <si>
+    <t>МИЛФРЕШ_г. Москва, Очаковское шоссе, д.40, стр.2</t>
+  </si>
+  <si>
+    <t>г. Москва, Очаковское шоссе, д.40, стр.2</t>
+  </si>
+  <si>
+    <t>АЙВОРИ_г. Москва, ул. Рябиновая д. 53, стр.2</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д. 53, стр.2</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, Ленинский пр-кт, д.123, В</t>
+  </si>
+  <si>
+    <t>г. Москва, Ленинский пр-кт, д.123, В</t>
+  </si>
+  <si>
+    <t>31_40789</t>
+  </si>
+  <si>
+    <t>Р757УР799</t>
+  </si>
+  <si>
+    <t>Кузин Олег Викторович</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
+  </si>
+  <si>
+    <t>г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
+  </si>
+  <si>
+    <t>АШАН-МАГАЗИНЫ_г.Москва, ул. Миклухо-Маклая д.32А</t>
+  </si>
+  <si>
+    <t>г.Москва, ул. Миклухо-Маклая д.32А</t>
+  </si>
+  <si>
+    <t>Зельгрос (Магазины)_Подольских Курсантов ул.д.26 стр.1</t>
+  </si>
+  <si>
+    <t>Подольских Курсантов ул.д.26 стр.1</t>
   </si>
   <si>
     <t>ГАСТРОНОМ ВРЕМЕНА_г. Москва, Кутузовский проспект, д.48</t>
@@ -55,475 +196,343 @@
     <t>г. Москва, Кутузовский проспект, д.48</t>
   </si>
   <si>
-    <t>Разгрузка</t>
-  </si>
-  <si>
-    <t>АШАН-МАГАЗИНЫ_г. Москва, ул. Вавилова д. 3</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Вавилова д. 3</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. Бауманская, д.32, стр.2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Бауманская, д.32, стр.2</t>
-  </si>
-  <si>
-    <t>ФК "ЭКЗОТИКА"_г. Москва, Автомобильный проезд, 10с14</t>
-  </si>
-  <si>
-    <t>г. Москва, Автомобильный проезд, 10с14</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. 7-я Кожуховская, д. 9</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. 7-я Кожуховская, д. 9</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. Гурьянова, д. 2 лит. А</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Гурьянова, д. 2 лит. А</t>
-  </si>
-  <si>
-    <t>13_40677</t>
-  </si>
-  <si>
-    <t>Е322СА799</t>
+    <t>Лента_г. Москва, ул. Большая Черемушкинская, д.1</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Большая Черемушкинская, д.1</t>
+  </si>
+  <si>
+    <t>Х5 (Агроторг)_г.Москва, ул. Вятская д. 27, стр.22</t>
+  </si>
+  <si>
+    <t>г.Москва, ул. Вятская д. 27, стр.22</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
+  </si>
+  <si>
+    <t>&amp;Тимошенко П.В._Нижний Кисловский пер.,д.8/2, Совет Ветеранов-заезд с Малого Кисловского (Петр Алексеевич 8-903-217-93-87)</t>
+  </si>
+  <si>
+    <t>Нижний Кисловский пер.,д.8/2, Совет Ветеранов-заезд с Малого Кисловского (Петр Алексеевич 8-903-217-93-87)</t>
+  </si>
+  <si>
+    <t>51_40789</t>
+  </si>
+  <si>
+    <t>Р454УР799</t>
+  </si>
+  <si>
+    <t>Лютиков Виталий Николаевич</t>
+  </si>
+  <si>
+    <t>Магнолия (РЦ)_г. Москва, п. Марушкинское, вблизи д. Шарапово, Складской корпус № 4</t>
+  </si>
+  <si>
+    <t>г. Москва, п. Марушкинское, вблизи д. Шарапово, Складской корпус № 4</t>
+  </si>
+  <si>
+    <t>ХорекаЭкспресс_г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
+  </si>
+  <si>
+    <t>г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
+  </si>
+  <si>
+    <t>Х5 (Онлайн-Гипермаркет)_г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
+  </si>
+  <si>
+    <t>г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
+  </si>
+  <si>
+    <t>54_40789</t>
+  </si>
+  <si>
+    <t>Р801УР799</t>
+  </si>
+  <si>
+    <t>Саянов Максим Александрович</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. Бибиревская д.10, корп.2</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Бибиревская д.10, корп.2</t>
+  </si>
+  <si>
+    <t>Глобус_М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
+  </si>
+  <si>
+    <t>М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва. Ярославское ш. д. 54</t>
+  </si>
+  <si>
+    <t>г. Москва. Ярославское ш. д. 54</t>
+  </si>
+  <si>
+    <t>ИП Роздухов М. Е._г. Мытищи, ул. Фуражный пр., д.4</t>
+  </si>
+  <si>
+    <t>г. Мытищи, ул. Фуражный пр., д.4</t>
+  </si>
+  <si>
+    <t>55_40789</t>
+  </si>
+  <si>
+    <t>А176ЕК977</t>
+  </si>
+  <si>
+    <t>Удалов Михаил Юрьевич</t>
+  </si>
+  <si>
+    <t>АО Вкусвилл_М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
+  </si>
+  <si>
+    <t>М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
+  </si>
+  <si>
+    <t>Х5 (Онлайн-Гипермаркет)_М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
+  </si>
+  <si>
+    <t>М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
+  </si>
+  <si>
+    <t>56_40789</t>
+  </si>
+  <si>
+    <t>В312АН977</t>
+  </si>
+  <si>
+    <t>Блохин Валентин Витальевич</t>
+  </si>
+  <si>
+    <t>ДВ Невада_М.О., Домодедовский р-он, д Жеребятьево, тер Колычевское -Жеребятьево стр 2.</t>
+  </si>
+  <si>
+    <t>М.О., Домодедовский р-он, д Жеребятьево, тер Колычевское -Жеребятьево стр 2.</t>
+  </si>
+  <si>
+    <t>ТАУБЕР И К_М.О., г.Домодедово, п. ГПЗ Константиново, Объездное шоссе строение 2.</t>
+  </si>
+  <si>
+    <t>М.О., г.Домодедово, п. ГПЗ Константиново, Объездное шоссе строение 2.</t>
+  </si>
+  <si>
+    <t>АО Вкусвилл_М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
+  </si>
+  <si>
+    <t>М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
+  </si>
+  <si>
+    <t>Лента(РЦ М и МО)_М.О., Чеховский р-н, д. Лешино</t>
+  </si>
+  <si>
+    <t>М.О., Чеховский р-н, д. Лешино</t>
+  </si>
+  <si>
+    <t>57_40789</t>
+  </si>
+  <si>
+    <t>Р658УР799</t>
+  </si>
+  <si>
+    <t>Рощупкин Евгений Александрович</t>
+  </si>
+  <si>
+    <t>АЗБУКА ВКУСА (РЦ МСК)_М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
+  </si>
+  <si>
+    <t>М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
+  </si>
+  <si>
+    <t>59_40789</t>
+  </si>
+  <si>
+    <t>Е379СА799</t>
   </si>
   <si>
     <t>Чернышев Денис Игорьевич</t>
   </si>
   <si>
-    <t>Лента_г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
-  </si>
-  <si>
-    <t>г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
-  </si>
-  <si>
-    <t>Блэкберри_г. Москва, ул. 1-я Магистральная д.8</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. 1-я Магистральная д.8</t>
-  </si>
-  <si>
     <t>Вкусная Пекарня_г. Москва , Волоколамское ш., д.89</t>
   </si>
   <si>
     <t>г. Москва , Волоколамское ш., д.89</t>
   </si>
   <si>
-    <t>Лента_г. Москва, ул. Бибиревская д.10, корп.2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Бибиревская д.10, корп.2</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва. Ярославское ш. д. 54</t>
-  </si>
-  <si>
-    <t>г. Москва. Ярославское ш. д. 54</t>
-  </si>
-  <si>
-    <t>ИП Роздухов М. Е._г. Мытищи, ул. Фуражный пр., д.4</t>
-  </si>
-  <si>
-    <t>г. Мытищи, ул. Фуражный пр., д.4</t>
-  </si>
-  <si>
-    <t>23_40677</t>
-  </si>
-  <si>
-    <t>М987НУ799</t>
-  </si>
-  <si>
-    <t>Фадеев Иван Юрьевич</t>
-  </si>
-  <si>
-    <t>ЦСЭМ "Московский"_М.О., Одинцовский г.о., д. Вырубово д.70</t>
-  </si>
-  <si>
-    <t>М.О., Одинцовский г.о., д. Вырубово д.70</t>
-  </si>
-  <si>
-    <t>АЙВОРИ_г. Москва, ул. Рябиновая д. 53, стр.2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д. 53, стр.2</t>
-  </si>
-  <si>
-    <t>АЗБУКА ВКУСА ПРОИЗВОДСТВО_г. Москва, ул Рябиновая, д.47Б</t>
-  </si>
-  <si>
-    <t>г. Москва, ул Рябиновая, д.47Б</t>
-  </si>
-  <si>
-    <t>МИЛТИ_г. Москва, ул. Рябиновая д.44, стр 28</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д.44, стр 28</t>
-  </si>
-  <si>
-    <t>РОБИНСОН_г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
-  </si>
-  <si>
-    <t>г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
-  </si>
-  <si>
-    <t>АКАССИЯ_г. Москва, ул. Рябиновая д.44 стр 28</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д.44 стр 28</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
-  </si>
-  <si>
-    <t>г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, Ленинский пр-кт, д.123, В</t>
-  </si>
-  <si>
-    <t>г. Москва, Ленинский пр-кт, д.123, В</t>
-  </si>
-  <si>
-    <t>Х5 (Онлайн-Гипермаркет)_г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
-  </si>
-  <si>
-    <t>г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
-  </si>
-  <si>
-    <t>31_40677</t>
-  </si>
-  <si>
-    <t>Е124СА799</t>
-  </si>
-  <si>
-    <t>Кузин Олег Викторович</t>
-  </si>
-  <si>
-    <t>ХорекаЭкспресс_г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
-  </si>
-  <si>
-    <t>г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
-  </si>
-  <si>
-    <t>Зельгрос (Магазины)_Подольских Курсантов ул.д.26 стр.1</t>
-  </si>
-  <si>
-    <t>Подольских Курсантов ул.д.26 стр.1</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. Большая Черемушкинская, д.1</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Большая Черемушкинская, д.1</t>
-  </si>
-  <si>
-    <t>Верный_ ОФИС. Москва, пр-т Вернадского д.6</t>
-  </si>
-  <si>
-    <t>ОФИС. Москва, пр-т Вернадского д.6</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
-  </si>
-  <si>
-    <t>г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
-  </si>
-  <si>
-    <t>51_40677</t>
-  </si>
-  <si>
-    <t>Е379СА799</t>
-  </si>
-  <si>
-    <t>Александров Роман Сергеевич</t>
-  </si>
-  <si>
-    <t>Магнолия (РЦ)_г. Москва, п. Марушкинское, вблизи д. Шарапово, Складской корпус № 4</t>
-  </si>
-  <si>
-    <t>г. Москва, п. Марушкинское, вблизи д. Шарапово, Складской корпус № 4</t>
-  </si>
-  <si>
-    <t>Дикси_г. Москва, пос. Марушкинское, вблизи деревни Шарапово (ВНУКОВО)</t>
-  </si>
-  <si>
-    <t>г. Москва, пос. Марушкинское, вблизи деревни Шарапово (ВНУКОВО)</t>
-  </si>
-  <si>
-    <t>52_40677</t>
-  </si>
-  <si>
-    <t>Р759УР799</t>
-  </si>
-  <si>
-    <t>Корхов Александр Владимирович</t>
-  </si>
-  <si>
     <t>Мираторг РЦ_М.О., Солнечногорский р-н, с.п. Пешковское , в р-не д. Шелепаново РЦ</t>
   </si>
   <si>
     <t>М.О., Солнечногорский р-н, с.п. Пешковское , в р-не д. Шелепаново РЦ</t>
   </si>
   <si>
-    <t>Дикси_М.О., Дмитровский г.о., Деревня Глазово, с6,</t>
-  </si>
-  <si>
-    <t>М.О., Дмитровский г.о., Деревня Глазово, с6,</t>
-  </si>
-  <si>
-    <t>54_40677</t>
-  </si>
-  <si>
-    <t>Р757УР799</t>
+    <t>Магнит (В1- Первый выбор)_141825 Дмитровский р-он, г. Дмитров, 4-й км. Автодор. Дмитров-Орудьево-Жуковка тер., вл. 57 .с18</t>
+  </si>
+  <si>
+    <t>141825 Дмитровский р-он, г. Дмитров, 4-й км. Автодор. Дмитров-Орудьево-Жуковка тер., вл. 57 .с18</t>
+  </si>
+  <si>
+    <t>68_40789</t>
+  </si>
+  <si>
+    <t>А458ЕК977</t>
+  </si>
+  <si>
+    <t>Даркин Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри РЦ_М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
+  </si>
+  <si>
+    <t>М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
+  </si>
+  <si>
+    <t>71_40789</t>
+  </si>
+  <si>
+    <t>Р722УР799</t>
+  </si>
+  <si>
+    <t>Юсупов Марат Исхакович</t>
+  </si>
+  <si>
+    <t>Х5 (РЦ)_М.О., Раменский р-н, с.Софьино</t>
+  </si>
+  <si>
+    <t>М.О., Раменский р-н, с.Софьино</t>
+  </si>
+  <si>
+    <t>72_40789</t>
+  </si>
+  <si>
+    <t>Р871УР799</t>
+  </si>
+  <si>
+    <t>Пашаев Абдулла Зубайругаджиевич</t>
+  </si>
+  <si>
+    <t>73_40789</t>
+  </si>
+  <si>
+    <t>ДА-ЛОГИСТИКА ООО</t>
+  </si>
+  <si>
+    <t>Е463АК550</t>
+  </si>
+  <si>
+    <t>Гладких Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>76_40789</t>
+  </si>
+  <si>
+    <t>А388ЕК977</t>
   </si>
   <si>
     <t>Ситников Максим Владимирович</t>
   </si>
   <si>
-    <t>Глобус_М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
-  </si>
-  <si>
-    <t>М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
-  </si>
-  <si>
-    <t>55_40677</t>
-  </si>
-  <si>
-    <t>Р454УР799</t>
-  </si>
-  <si>
-    <t>Калинушкин Михаил Викторович</t>
-  </si>
-  <si>
-    <t>АО Вкусвилл_М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
-  </si>
-  <si>
-    <t>М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
-  </si>
-  <si>
-    <t>Х5 (Онлайн-Гипермаркет)_М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
-  </si>
-  <si>
-    <t>М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
-  </si>
-  <si>
-    <t>56_40677</t>
-  </si>
-  <si>
-    <t>Р801УР799</t>
-  </si>
-  <si>
-    <t>Саянов Максим Александрович</t>
-  </si>
-  <si>
-    <t>ДВ Невада_М.О., Домодедовский р-он, д Жеребятьево, тер Колычевское -Жеребятьево стр 2.</t>
-  </si>
-  <si>
-    <t>М.О., Домодедовский р-он, д Жеребятьево, тер Колычевское -Жеребятьево стр 2.</t>
-  </si>
-  <si>
-    <t>АО Вкусвилл_М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
-  </si>
-  <si>
-    <t>М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
-  </si>
-  <si>
-    <t>57_40677</t>
-  </si>
-  <si>
-    <t>В617ВХ977</t>
-  </si>
-  <si>
-    <t>Рубцов Анатолий Анатольевич</t>
-  </si>
-  <si>
-    <t>АЗБУКА ВКУСА (РЦ МСК)_М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
-  </si>
-  <si>
-    <t>М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
-  </si>
-  <si>
-    <t>68_40677</t>
-  </si>
-  <si>
-    <t>М723НУ799</t>
-  </si>
-  <si>
-    <t>Удалов Михаил Юрьевич</t>
-  </si>
-  <si>
-    <t>Метро-Метро Кэш энд Керри РЦ_М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
-  </si>
-  <si>
-    <t>М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
-  </si>
-  <si>
-    <t>73_40677</t>
-  </si>
-  <si>
-    <t>У472ТН777</t>
-  </si>
-  <si>
-    <t>Даркин Александр Анатольевич</t>
-  </si>
-  <si>
-    <t>Х5 (РЦ)_М.О., Раменский р-н, с.Софьино</t>
-  </si>
-  <si>
-    <t>М.О., Раменский р-н, с.Софьино</t>
-  </si>
-  <si>
-    <t>74_40677</t>
+    <t>Национальная фруктовая компания (МСК)_М.О.,Подольский район, с. Сынково, д. 77</t>
+  </si>
+  <si>
+    <t>М.О.,Подольский район, с. Сынково, д. 77</t>
+  </si>
+  <si>
+    <t>Лента(РЦ М и МО)_М.О., г.о. Подольск, д. Валищево, промышленного парка Валищево тер., стр.12</t>
+  </si>
+  <si>
+    <t>М.О., г.о. Подольск, д. Валищево, промышленного парка Валищево тер., стр.12</t>
+  </si>
+  <si>
+    <t>87_40789</t>
+  </si>
+  <si>
+    <t>В182АН977</t>
+  </si>
+  <si>
+    <t>Ефремов Алексей Вячеславович</t>
+  </si>
+  <si>
+    <t>УМНЫЙ РИТЕЙЛ (Мск + Ярославль)_Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
+  </si>
+  <si>
+    <t>Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
+  </si>
+  <si>
+    <t>Твой дом(Мытищинский филиал)_М.О., г. Мытищи, Осташковское шоссе, д.2</t>
+  </si>
+  <si>
+    <t>М.О., г. Мытищи, Осташковское шоссе, д.2</t>
+  </si>
+  <si>
+    <t>88_40789</t>
+  </si>
+  <si>
+    <t>Р874УР799</t>
+  </si>
+  <si>
+    <t>Казанцев Эдуард Владиславович</t>
+  </si>
+  <si>
+    <t>Яндекс.Лавка ГОТОВАЯ ЕДА _121471, Москва, Рябиновая, 45 cтр. 5</t>
+  </si>
+  <si>
+    <t>121471, Москва, Рябиновая, 45 cтр. 5</t>
+  </si>
+  <si>
+    <t>Яндекс.Лавка_г. Москва, ул. Рябиновая д. 45, с5</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д. 45, с5</t>
+  </si>
+  <si>
+    <t>Интернет решения_г. Москва, ул. Рябиновая д. 51, стр. 2</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д. 51, стр. 2</t>
+  </si>
+  <si>
+    <t>92_40789</t>
+  </si>
+  <si>
+    <t>Р755УР799</t>
+  </si>
+  <si>
+    <t>Слипенский Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>ИП (МИРЗА)_г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
+  </si>
+  <si>
+    <t>г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
+  </si>
+  <si>
+    <t>93_40789</t>
+  </si>
+  <si>
+    <t>Р911УР799</t>
+  </si>
+  <si>
+    <t>Малышев Михаил Александрович</t>
+  </si>
+  <si>
+    <t>ИП (Фуд Сити Дмитрий)_22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
+  </si>
+  <si>
+    <t>22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
+  </si>
+  <si>
+    <t>94_40789</t>
   </si>
   <si>
     <t>Р783УР799</t>
   </si>
   <si>
     <t>Бехов Дмитрий Петрович</t>
-  </si>
-  <si>
-    <t>76_40677</t>
-  </si>
-  <si>
-    <t>М897НУ799</t>
-  </si>
-  <si>
-    <t>Лютиков Виталий Николаевич</t>
-  </si>
-  <si>
-    <t>Национальная фруктовая компания (МСК)_М.О.,Подольский район, с. Сынково, д. 77</t>
-  </si>
-  <si>
-    <t>М.О.,Подольский район, с. Сынково, д. 77</t>
-  </si>
-  <si>
-    <t>82_40677</t>
-  </si>
-  <si>
-    <t>В182АН977</t>
-  </si>
-  <si>
-    <t>Ефремов Алексей Вячеславович</t>
-  </si>
-  <si>
-    <t>Х5 (Дискаунтер) РЦ_г. Москва, п. Рязановское, п. Знамя Октября, территория СНТ Елочка, д. 20А, стр. 2 РЦ ПОДОЛЬСК</t>
-  </si>
-  <si>
-    <t>г. Москва, п. Рязановское, п. Знамя Октября, территория СНТ Елочка, д. 20А, стр. 2 РЦ ПОДОЛЬСК</t>
-  </si>
-  <si>
-    <t>84_40677</t>
-  </si>
-  <si>
-    <t>А310НА799</t>
-  </si>
-  <si>
-    <t>Юсупов Марат Исхакович</t>
-  </si>
-  <si>
-    <t>Х5 (Агроторг) РЦ_Калужская обл., с.Ворсино, тер. Северная пром. зона, вл.6, стр. 4,МЛ, Ворсино, Кросс-доки</t>
-  </si>
-  <si>
-    <t>Калужская обл., с.Ворсино, тер. Северная пром. зона, вл.6, стр. 4,МЛ, Ворсино, Кросс-доки</t>
-  </si>
-  <si>
-    <t>87_40677</t>
-  </si>
-  <si>
-    <t>В312АН977</t>
-  </si>
-  <si>
-    <t>Блохин Валентин Витальевич</t>
-  </si>
-  <si>
-    <t>УМНЫЙ РИТЕЙЛ (Мск + Ярославль)_Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
-  </si>
-  <si>
-    <t>Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
-  </si>
-  <si>
-    <t>88_40677</t>
-  </si>
-  <si>
-    <t>Р911УР799</t>
-  </si>
-  <si>
-    <t>Ковальчук Александр Александрович</t>
-  </si>
-  <si>
-    <t>Интернет решения_г. Москва, ул. Рябиновая д. 51, стр. 2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д. 51, стр. 2</t>
-  </si>
-  <si>
-    <t>Яндекс.Лавка_г. Москва, ул. Рябиновая д. 45, с5</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д. 45, с5</t>
-  </si>
-  <si>
-    <t>93_40677</t>
-  </si>
-  <si>
-    <t>Р874УР799</t>
-  </si>
-  <si>
-    <t>Казанцев Эдуард Владиславович</t>
-  </si>
-  <si>
-    <t>Зельгрос (РЦ)_М.О., Наро-Фоминский г.о., пос. Селятино, ул. Промышленная д.11А (г. Волгоград)</t>
-  </si>
-  <si>
-    <t>М.О., Наро-Фоминский г.о., пос. Селятино, ул. Промышленная д.11А (г. Волгоград)</t>
-  </si>
-  <si>
-    <t>Зельгрос (РЦ)_М.О., Наро-Фоминский г.о., пос. Селятино, ул. Промышленная д.11А ( г. Тула)</t>
-  </si>
-  <si>
-    <t>М.О., Наро-Фоминский г.о., пос. Селятино, ул. Промышленная д.11А ( г. Тула)</t>
-  </si>
-  <si>
-    <t>102_40677</t>
-  </si>
-  <si>
-    <t>Р658УР799</t>
-  </si>
-  <si>
-    <t>Рощупкин Евгений Александрович</t>
-  </si>
-  <si>
-    <t>ИП (Фуд Сити Дмитрий)_22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
-  </si>
-  <si>
-    <t>22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
-  </si>
-  <si>
-    <t>Д-Фрут (Мирза)_г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
-  </si>
-  <si>
-    <t>г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
-  </si>
-  <si>
-    <t>105_40677</t>
-  </si>
-  <si>
-    <t>Р703УР799</t>
-  </si>
-  <si>
-    <t>Доборщук Максим Вячеславович</t>
-  </si>
-  <si>
-    <t>Родник_г. Москва г, ул. Маршала Прошлякова, д.30</t>
-  </si>
-  <si>
-    <t>г. Москва г, ул. Маршала Прошлякова, д.30</t>
   </si>
 </sst>
 </file>
@@ -884,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -930,10 +939,10 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T1" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U1" t="s">
         <v>4</v>
@@ -977,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1010,10 +1019,10 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T2" s="2">
-        <v>45502.375</v>
+        <v>45558.708333333336</v>
       </c>
       <c r="U2" t="s">
         <v>9</v>
@@ -1028,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="Y2" s="4">
-        <v>55.731718000000001</v>
+        <v>55.711204000000002</v>
       </c>
       <c r="Z2" s="4">
-        <v>37.487361999999997</v>
+        <v>37.678800000000003</v>
       </c>
       <c r="AA2" t="s">
         <v>3</v>
@@ -1061,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1094,10 +1103,10 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="2">
-        <v>45502.270833333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T3" s="2">
-        <v>45502.625</v>
+        <v>45558.708333333336</v>
       </c>
       <c r="U3" t="s">
         <v>12</v>
@@ -1112,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="Y3" s="4">
-        <v>55.706856000000002</v>
+        <v>55.693925999999998</v>
       </c>
       <c r="Z3" s="4">
-        <v>37.594687</v>
+        <v>37.723078999999998</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -1145,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1178,10 +1187,10 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.375</v>
       </c>
       <c r="T4" s="2">
-        <v>45502.708333333336</v>
+        <v>45558.458333333336</v>
       </c>
       <c r="U4" t="s">
         <v>14</v>
@@ -1196,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="Y4" s="4">
-        <v>55.772162999999999</v>
+        <v>55.725315999999999</v>
       </c>
       <c r="Z4" s="4">
-        <v>37.678325000000001</v>
+        <v>37.710036000000002</v>
       </c>
       <c r="AA4" t="s">
         <v>3</v>
@@ -1229,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1262,10 +1271,10 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="T5" s="2">
-        <v>45502.458333333336</v>
+        <v>45558.5</v>
       </c>
       <c r="U5" t="s">
         <v>16</v>
@@ -1280,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="Y5" s="4">
-        <v>55.725315999999999</v>
+        <v>55.728541</v>
       </c>
       <c r="Z5" s="4">
-        <v>37.710036000000002</v>
+        <v>37.689407000000003</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
@@ -1313,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1346,10 +1355,10 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T6" s="2">
-        <v>45502.999305555553</v>
+        <v>45558.708333333336</v>
       </c>
       <c r="U6" t="s">
         <v>18</v>
@@ -1364,10 +1373,10 @@
         <v>5</v>
       </c>
       <c r="Y6" s="4">
-        <v>55.711204000000002</v>
+        <v>55.772162999999999</v>
       </c>
       <c r="Z6" s="4">
-        <v>37.678800000000003</v>
+        <v>37.678325000000001</v>
       </c>
       <c r="AA6" t="s">
         <v>3</v>
@@ -1397,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1430,10 +1439,10 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="2">
-        <v>45502.291666666664</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T7" s="2">
-        <v>45502.666666666664</v>
+        <v>45558.75</v>
       </c>
       <c r="U7" t="s">
         <v>20</v>
@@ -1448,10 +1457,10 @@
         <v>6</v>
       </c>
       <c r="Y7" s="4">
-        <v>55.693925999999998</v>
+        <v>55.767392000000001</v>
       </c>
       <c r="Z7" s="4">
-        <v>37.723078999999998</v>
+        <v>37.729008</v>
       </c>
       <c r="AA7" t="s">
         <v>3</v>
@@ -1478,10 +1487,10 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1501,10 +1510,10 @@
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
-        <v>1480</v>
+        <v>740</v>
       </c>
       <c r="K8" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1514,25 +1523,29 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T8" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.583333333336</v>
       </c>
       <c r="U8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="V8" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>55.783456999999999</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>37.721701000000003</v>
+      </c>
       <c r="AA8" t="s">
         <v>3</v>
       </c>
@@ -1540,13 +1553,13 @@
         <v>3</v>
       </c>
       <c r="AC8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="s">
         <v>3</v>
       </c>
       <c r="AE8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="3"/>
       <c r="AG8" t="s">
@@ -1558,10 +1571,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1581,10 +1594,10 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3">
-        <v>1480</v>
+        <v>740</v>
       </c>
       <c r="K9" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1594,28 +1607,28 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="T9" s="2">
-        <v>45502.708333333336</v>
+        <v>45558.708333333336</v>
       </c>
       <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" t="s">
         <v>25</v>
-      </c>
-      <c r="V9" t="s">
-        <v>26</v>
       </c>
       <c r="W9" t="s">
         <v>11</v>
       </c>
       <c r="X9" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y9" s="4">
-        <v>55.776637999999998</v>
+        <v>55.729975000000003</v>
       </c>
       <c r="Z9" s="4">
-        <v>37.470686000000001</v>
+        <v>37.747388000000001</v>
       </c>
       <c r="AA9" t="s">
         <v>3</v>
@@ -1624,13 +1637,13 @@
         <v>3</v>
       </c>
       <c r="AC9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="s">
         <v>3</v>
       </c>
       <c r="AE9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" t="s">
@@ -1642,10 +1655,10 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1665,10 +1678,10 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3">
-        <v>1480</v>
+        <v>740</v>
       </c>
       <c r="K10" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1678,28 +1691,28 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="2">
-        <v>45502.291666666664</v>
+        <v>45558.270833333336</v>
       </c>
       <c r="T10" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.625</v>
       </c>
       <c r="U10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" t="s">
         <v>27</v>
-      </c>
-      <c r="V10" t="s">
-        <v>28</v>
       </c>
       <c r="W10" t="s">
         <v>11</v>
       </c>
       <c r="X10" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Y10" s="4">
-        <v>55.768284000000001</v>
+        <v>55.706856000000002</v>
       </c>
       <c r="Z10" s="4">
-        <v>37.530237999999997</v>
+        <v>37.594687</v>
       </c>
       <c r="AA10" t="s">
         <v>3</v>
@@ -1708,13 +1721,13 @@
         <v>3</v>
       </c>
       <c r="AC10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="s">
         <v>3</v>
       </c>
       <c r="AE10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" t="s">
@@ -1726,10 +1739,10 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1762,43 +1775,39 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="2">
-        <v>45502.354166666664</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T11" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC11" t="s">
         <v>29</v>
       </c>
-      <c r="V11" t="s">
+      <c r="AD11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="s">
         <v>30</v>
-      </c>
-      <c r="W11" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>55.829067000000002</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>37.410556</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>24</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" t="s">
@@ -1810,10 +1819,10 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1846,10 +1855,10 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.375</v>
       </c>
       <c r="T12" s="2">
-        <v>45502.75</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U12" t="s">
         <v>31</v>
@@ -1861,13 +1870,13 @@
         <v>11</v>
       </c>
       <c r="X12" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="4">
-        <v>55.881749999999997</v>
+        <v>55.674909999999997</v>
       </c>
       <c r="Z12" s="4">
-        <v>37.601197999999997</v>
+        <v>37.308970000000002</v>
       </c>
       <c r="AA12" t="s">
         <v>3</v>
@@ -1876,13 +1885,13 @@
         <v>3</v>
       </c>
       <c r="AC12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="s">
         <v>3</v>
       </c>
       <c r="AE12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF12" s="3"/>
       <c r="AG12" t="s">
@@ -1894,10 +1903,10 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1930,10 +1939,10 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.375</v>
       </c>
       <c r="T13" s="2">
-        <v>45502.708333333336</v>
+        <v>45558.5</v>
       </c>
       <c r="U13" t="s">
         <v>33</v>
@@ -1945,13 +1954,13 @@
         <v>11</v>
       </c>
       <c r="X13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="4">
-        <v>55.865022000000003</v>
+        <v>55.692006999999997</v>
       </c>
       <c r="Z13" s="4">
-        <v>37.705665000000003</v>
+        <v>37.419944000000001</v>
       </c>
       <c r="AA13" t="s">
         <v>3</v>
@@ -1960,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="AC13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD13" t="s">
         <v>3</v>
       </c>
       <c r="AE13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" t="s">
@@ -1978,10 +1987,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2014,10 +2023,10 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="2">
-        <v>45502.583333333336</v>
+        <v>45558.375</v>
       </c>
       <c r="T14" s="2">
-        <v>45502.625</v>
+        <v>45558.625</v>
       </c>
       <c r="U14" t="s">
         <v>35</v>
@@ -2029,13 +2038,13 @@
         <v>11</v>
       </c>
       <c r="X14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="4">
-        <v>55.891435999999999</v>
+        <v>55.658999999999999</v>
       </c>
       <c r="Z14" s="4">
-        <v>37.753698</v>
+        <v>37.377288</v>
       </c>
       <c r="AA14" t="s">
         <v>3</v>
@@ -2044,13 +2053,13 @@
         <v>3</v>
       </c>
       <c r="AC14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="s">
         <v>3</v>
       </c>
       <c r="AE14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" t="s">
@@ -2062,10 +2071,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2098,25 +2107,29 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T15" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.5</v>
       </c>
       <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="3">
         <v>4</v>
       </c>
-      <c r="V15" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" t="s">
-        <v>6</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="Y15" s="4">
+        <v>55.673310999999998</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>37.432124000000002</v>
+      </c>
       <c r="AA15" t="s">
         <v>3</v>
       </c>
@@ -2124,13 +2137,13 @@
         <v>3</v>
       </c>
       <c r="AC15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="s">
         <v>3</v>
       </c>
       <c r="AE15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" t="s">
@@ -2142,10 +2155,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2178,28 +2191,28 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="2">
-        <v>45502.375</v>
+        <v>45558.375</v>
       </c>
       <c r="T16" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.583333333336</v>
       </c>
       <c r="U16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" t="s">
         <v>40</v>
-      </c>
-      <c r="V16" t="s">
-        <v>41</v>
       </c>
       <c r="W16" t="s">
         <v>11</v>
       </c>
       <c r="X16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="4">
-        <v>55.674909999999997</v>
+        <v>55.68327</v>
       </c>
       <c r="Z16" s="4">
-        <v>37.308970000000002</v>
+        <v>37.438619000000003</v>
       </c>
       <c r="AA16" t="s">
         <v>3</v>
@@ -2208,13 +2221,13 @@
         <v>3</v>
       </c>
       <c r="AC16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AD16" t="s">
         <v>3</v>
       </c>
       <c r="AE16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" t="s">
@@ -2226,10 +2239,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2262,22 +2275,22 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="2">
-        <v>45502.291666666664</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T17" s="2">
-        <v>45502.75</v>
+        <v>45558.75</v>
       </c>
       <c r="U17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s">
         <v>42</v>
-      </c>
-      <c r="V17" t="s">
-        <v>43</v>
       </c>
       <c r="W17" t="s">
         <v>11</v>
       </c>
       <c r="X17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y17" s="4">
         <v>55.692957</v>
@@ -2292,13 +2305,13 @@
         <v>3</v>
       </c>
       <c r="AC17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AD17" t="s">
         <v>3</v>
       </c>
       <c r="AE17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" t="s">
@@ -2310,10 +2323,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -2346,28 +2359,28 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T18" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.75</v>
       </c>
       <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" t="s">
         <v>44</v>
-      </c>
-      <c r="V18" t="s">
-        <v>45</v>
       </c>
       <c r="W18" t="s">
         <v>11</v>
       </c>
       <c r="X18" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y18" s="4">
-        <v>55.697634999999998</v>
+        <v>55.658256000000002</v>
       </c>
       <c r="Z18" s="4">
-        <v>37.432931000000004</v>
+        <v>37.429958999999997</v>
       </c>
       <c r="AA18" t="s">
         <v>3</v>
@@ -2376,13 +2389,13 @@
         <v>3</v>
       </c>
       <c r="AC18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="s">
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" t="s">
@@ -2394,10 +2407,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -2430,28 +2443,28 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="2">
-        <v>45502.375</v>
+        <v>45558.375</v>
       </c>
       <c r="T19" s="2">
-        <v>45502.583333333336</v>
+        <v>45558.6875</v>
       </c>
       <c r="U19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" t="s">
         <v>46</v>
-      </c>
-      <c r="V19" t="s">
-        <v>47</v>
       </c>
       <c r="W19" t="s">
         <v>11</v>
       </c>
       <c r="X19" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y19" s="4">
-        <v>55.673073000000002</v>
+        <v>55.647782999999997</v>
       </c>
       <c r="Z19" s="4">
-        <v>37.433129000000001</v>
+        <v>37.481153999999997</v>
       </c>
       <c r="AA19" t="s">
         <v>3</v>
@@ -2460,13 +2473,13 @@
         <v>3</v>
       </c>
       <c r="AC19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AD19" t="s">
         <v>3</v>
       </c>
       <c r="AE19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" t="s">
@@ -2478,10 +2491,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2514,43 +2527,39 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="2">
-        <v>45502.375</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T20" s="2">
-        <v>45502.625</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U20" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" t="s">
         <v>48</v>
       </c>
-      <c r="V20" t="s">
+      <c r="AD20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE20" t="s">
         <v>49</v>
-      </c>
-      <c r="W20" t="s">
-        <v>11</v>
-      </c>
-      <c r="X20" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>55.658999999999999</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>37.377288</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>39</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" t="s">
@@ -2562,10 +2571,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -2598,10 +2607,10 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T21" s="2">
-        <v>45502.5</v>
+        <v>45558.75</v>
       </c>
       <c r="U21" t="s">
         <v>50</v>
@@ -2613,13 +2622,13 @@
         <v>11</v>
       </c>
       <c r="X21" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="4">
-        <v>55.673310999999998</v>
+        <v>55.522933999999999</v>
       </c>
       <c r="Z21" s="4">
-        <v>37.432124000000002</v>
+        <v>37.518104000000001</v>
       </c>
       <c r="AA21" t="s">
         <v>3</v>
@@ -2628,13 +2637,13 @@
         <v>3</v>
       </c>
       <c r="AC21" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AD21" t="s">
         <v>3</v>
       </c>
       <c r="AE21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" t="s">
@@ -2646,10 +2655,10 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2682,10 +2691,10 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="2">
-        <v>45502.291666666664</v>
+        <v>45558.270833333336</v>
       </c>
       <c r="T22" s="2">
-        <v>45502.75</v>
+        <v>45558.583333333336</v>
       </c>
       <c r="U22" t="s">
         <v>52</v>
@@ -2697,13 +2706,13 @@
         <v>11</v>
       </c>
       <c r="X22" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="4">
-        <v>55.658256000000002</v>
+        <v>55.766212000000003</v>
       </c>
       <c r="Z22" s="4">
-        <v>37.429958999999997</v>
+        <v>37.380875000000003</v>
       </c>
       <c r="AA22" t="s">
         <v>3</v>
@@ -2712,13 +2721,13 @@
         <v>3</v>
       </c>
       <c r="AC22" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AD22" t="s">
         <v>3</v>
       </c>
       <c r="AE22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" t="s">
@@ -2730,10 +2739,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2766,10 +2775,10 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="2">
-        <v>45502.999305555553</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T23" s="2">
-        <v>45502.999305555553</v>
+        <v>45558.541666666664</v>
       </c>
       <c r="U23" t="s">
         <v>54</v>
@@ -2781,13 +2790,13 @@
         <v>11</v>
       </c>
       <c r="X23" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="4">
-        <v>55.647782999999997</v>
+        <v>55.592485000000003</v>
       </c>
       <c r="Z23" s="4">
-        <v>37.481153999999997</v>
+        <v>37.630907999999998</v>
       </c>
       <c r="AA23" t="s">
         <v>3</v>
@@ -2796,13 +2805,13 @@
         <v>3</v>
       </c>
       <c r="AC23" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AD23" t="s">
         <v>3</v>
       </c>
       <c r="AE23" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" t="s">
@@ -2814,10 +2823,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -2850,10 +2859,10 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="2">
-        <v>45502.5</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T24" s="2">
-        <v>45502.625</v>
+        <v>45558.375</v>
       </c>
       <c r="U24" t="s">
         <v>56</v>
@@ -2865,13 +2874,13 @@
         <v>11</v>
       </c>
       <c r="X24" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="4">
-        <v>55.617654999999999</v>
+        <v>55.731718000000001</v>
       </c>
       <c r="Z24" s="4">
-        <v>37.428660000000001</v>
+        <v>37.487361999999997</v>
       </c>
       <c r="AA24" t="s">
         <v>3</v>
@@ -2880,13 +2889,13 @@
         <v>3</v>
       </c>
       <c r="AC24" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AD24" t="s">
         <v>3</v>
       </c>
       <c r="AE24" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" t="s">
@@ -2898,10 +2907,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2934,25 +2943,29 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T25" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.833333333336</v>
       </c>
       <c r="U25" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
+        <v>59</v>
+      </c>
+      <c r="W25" t="s">
+        <v>11</v>
+      </c>
+      <c r="X25" s="3">
         <v>5</v>
       </c>
-      <c r="W25" t="s">
-        <v>6</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
+      <c r="Y25" s="4">
+        <v>55.688825000000001</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>37.601838000000001</v>
+      </c>
       <c r="AA25" t="s">
         <v>3</v>
       </c>
@@ -2960,13 +2973,13 @@
         <v>3</v>
       </c>
       <c r="AC25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AD25" t="s">
         <v>3</v>
       </c>
       <c r="AE25" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" t="s">
@@ -2978,10 +2991,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -3014,28 +3027,28 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="2">
-        <v>45502.291666666664</v>
+        <v>45558.3125</v>
       </c>
       <c r="T26" s="2">
-        <v>45502.5</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="U26" t="s">
+        <v>60</v>
+      </c>
+      <c r="V26" t="s">
         <v>61</v>
-      </c>
-      <c r="V26" t="s">
-        <v>62</v>
       </c>
       <c r="W26" t="s">
         <v>11</v>
       </c>
       <c r="X26" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y26" s="4">
-        <v>55.605862999999999</v>
+        <v>55.797331</v>
       </c>
       <c r="Z26" s="4">
-        <v>37.453448999999999</v>
+        <v>37.578584999999997</v>
       </c>
       <c r="AA26" t="s">
         <v>3</v>
@@ -3044,13 +3057,13 @@
         <v>3</v>
       </c>
       <c r="AC26" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AD26" t="s">
         <v>3</v>
       </c>
       <c r="AE26" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" t="s">
@@ -3062,10 +3075,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -3098,28 +3111,28 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="2">
-        <v>45502.291666666664</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T27" s="2">
-        <v>45502.541666666664</v>
+        <v>45558.708333333336</v>
       </c>
       <c r="U27" t="s">
+        <v>62</v>
+      </c>
+      <c r="V27" t="s">
         <v>63</v>
-      </c>
-      <c r="V27" t="s">
-        <v>64</v>
       </c>
       <c r="W27" t="s">
         <v>11</v>
       </c>
       <c r="X27" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y27" s="4">
-        <v>55.592485000000003</v>
+        <v>55.776637999999998</v>
       </c>
       <c r="Z27" s="4">
-        <v>37.630907999999998</v>
+        <v>37.470686000000001</v>
       </c>
       <c r="AA27" t="s">
         <v>3</v>
@@ -3128,13 +3141,13 @@
         <v>3</v>
       </c>
       <c r="AC27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AD27" t="s">
         <v>3</v>
       </c>
       <c r="AE27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF27" s="3"/>
       <c r="AG27" t="s">
@@ -3146,10 +3159,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -3182,28 +3195,28 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.4375</v>
       </c>
       <c r="T28" s="2">
-        <v>45502.833333333336</v>
+        <v>45558.458333333336</v>
       </c>
       <c r="U28" t="s">
+        <v>64</v>
+      </c>
+      <c r="V28" t="s">
         <v>65</v>
-      </c>
-      <c r="V28" t="s">
-        <v>66</v>
       </c>
       <c r="W28" t="s">
         <v>11</v>
       </c>
       <c r="X28" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y28" s="4">
-        <v>55.688825000000001</v>
+        <v>55.754274000000002</v>
       </c>
       <c r="Z28" s="4">
-        <v>37.601838000000001</v>
+        <v>37.603999000000002</v>
       </c>
       <c r="AA28" t="s">
         <v>3</v>
@@ -3212,13 +3225,13 @@
         <v>3</v>
       </c>
       <c r="AC28" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AD28" t="s">
         <v>3</v>
       </c>
       <c r="AE28" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" t="s">
@@ -3230,10 +3243,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -3266,43 +3279,39 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T29" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U29" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC29" t="s">
         <v>67</v>
       </c>
-      <c r="V29" t="s">
+      <c r="AD29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE29" t="s">
         <v>68</v>
-      </c>
-      <c r="W29" t="s">
-        <v>11</v>
-      </c>
-      <c r="X29" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="4">
-        <v>55.691963000000001</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>37.527965000000002</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>60</v>
       </c>
       <c r="AF29" s="3"/>
       <c r="AG29" t="s">
@@ -3314,10 +3323,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -3350,10 +3359,10 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T30" s="2">
-        <v>45502.75</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U30" t="s">
         <v>69</v>
@@ -3365,13 +3374,13 @@
         <v>11</v>
       </c>
       <c r="X30" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="4">
-        <v>55.522933999999999</v>
+        <v>55.575676000000001</v>
       </c>
       <c r="Z30" s="4">
-        <v>37.518104000000001</v>
+        <v>37.173540000000003</v>
       </c>
       <c r="AA30" t="s">
         <v>3</v>
@@ -3380,13 +3389,13 @@
         <v>3</v>
       </c>
       <c r="AC30" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AD30" t="s">
         <v>3</v>
       </c>
       <c r="AE30" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" t="s">
@@ -3398,10 +3407,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -3434,25 +3443,29 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T31" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.5</v>
       </c>
       <c r="U31" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="V31" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>55.605862999999999</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>37.453448999999999</v>
+      </c>
       <c r="AA31" t="s">
         <v>3</v>
       </c>
@@ -3460,13 +3473,13 @@
         <v>3</v>
       </c>
       <c r="AC31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD31" t="s">
         <v>3</v>
       </c>
       <c r="AE31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" t="s">
@@ -3478,10 +3491,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -3514,28 +3527,28 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.5</v>
       </c>
       <c r="T32" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.625</v>
       </c>
       <c r="U32" t="s">
+        <v>73</v>
+      </c>
+      <c r="V32" t="s">
         <v>74</v>
-      </c>
-      <c r="V32" t="s">
-        <v>75</v>
       </c>
       <c r="W32" t="s">
         <v>11</v>
       </c>
       <c r="X32" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y32" s="4">
-        <v>55.575676000000001</v>
+        <v>55.617654999999999</v>
       </c>
       <c r="Z32" s="4">
-        <v>37.173540000000003</v>
+        <v>37.428660000000001</v>
       </c>
       <c r="AA32" t="s">
         <v>3</v>
@@ -3544,13 +3557,13 @@
         <v>3</v>
       </c>
       <c r="AC32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AD32" t="s">
         <v>3</v>
       </c>
       <c r="AE32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AF32" s="3"/>
       <c r="AG32" t="s">
@@ -3562,10 +3575,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -3598,43 +3611,39 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2">
-        <v>45502.375</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T33" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U33" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" t="s">
         <v>76</v>
       </c>
-      <c r="V33" t="s">
+      <c r="AD33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE33" t="s">
         <v>77</v>
-      </c>
-      <c r="W33" t="s">
-        <v>11</v>
-      </c>
-      <c r="X33" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>55.577025999999996</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>37.171889</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>73</v>
       </c>
       <c r="AF33" s="3"/>
       <c r="AG33" t="s">
@@ -3646,10 +3655,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -3682,25 +3691,29 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T34" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.75</v>
       </c>
       <c r="U34" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>55.881749999999997</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>37.601197999999997</v>
+      </c>
       <c r="AA34" t="s">
         <v>3</v>
       </c>
@@ -3708,13 +3721,13 @@
         <v>3</v>
       </c>
       <c r="AC34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s">
         <v>3</v>
       </c>
       <c r="AE34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF34" s="3"/>
       <c r="AG34" t="s">
@@ -3726,10 +3739,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -3762,28 +3775,28 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="T35" s="2">
-        <v>45502.625</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U35" t="s">
+        <v>80</v>
+      </c>
+      <c r="V35" t="s">
         <v>81</v>
-      </c>
-      <c r="V35" t="s">
-        <v>82</v>
       </c>
       <c r="W35" t="s">
         <v>11</v>
       </c>
       <c r="X35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="4">
-        <v>56.115402000000003</v>
+        <v>56.024169999999998</v>
       </c>
       <c r="Z35" s="4">
-        <v>37.180309000000001</v>
+        <v>37.894297999999999</v>
       </c>
       <c r="AA35" t="s">
         <v>3</v>
@@ -3792,13 +3805,13 @@
         <v>3</v>
       </c>
       <c r="AC35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s">
         <v>3</v>
       </c>
       <c r="AE35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF35" s="3"/>
       <c r="AG35" t="s">
@@ -3810,10 +3823,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -3846,28 +3859,28 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2">
-        <v>45502.395833333336</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T36" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.708333333336</v>
       </c>
       <c r="U36" t="s">
+        <v>82</v>
+      </c>
+      <c r="V36" t="s">
         <v>83</v>
-      </c>
-      <c r="V36" t="s">
-        <v>84</v>
       </c>
       <c r="W36" t="s">
         <v>11</v>
       </c>
       <c r="X36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y36" s="4">
-        <v>56.097617</v>
+        <v>55.865022000000003</v>
       </c>
       <c r="Z36" s="4">
-        <v>37.343646</v>
+        <v>37.705665000000003</v>
       </c>
       <c r="AA36" t="s">
         <v>3</v>
@@ -3876,13 +3889,13 @@
         <v>3</v>
       </c>
       <c r="AC36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s">
         <v>3</v>
       </c>
       <c r="AE36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF36" s="3"/>
       <c r="AG36" t="s">
@@ -3894,10 +3907,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -3930,25 +3943,29 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.583333333336</v>
       </c>
       <c r="T37" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.625</v>
       </c>
       <c r="U37" t="s">
+        <v>84</v>
+      </c>
+      <c r="V37" t="s">
+        <v>85</v>
+      </c>
+      <c r="W37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X37" s="3">
         <v>4</v>
       </c>
-      <c r="V37" t="s">
-        <v>5</v>
-      </c>
-      <c r="W37" t="s">
-        <v>6</v>
-      </c>
-      <c r="X37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
+      <c r="Y37" s="4">
+        <v>55.891435999999999</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>37.753698</v>
+      </c>
       <c r="AA37" t="s">
         <v>3</v>
       </c>
@@ -3956,13 +3973,13 @@
         <v>3</v>
       </c>
       <c r="AC37" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s">
         <v>3</v>
       </c>
       <c r="AE37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF37" s="3"/>
       <c r="AG37" t="s">
@@ -3974,10 +3991,10 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -3997,10 +4014,10 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K38" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -4010,43 +4027,39 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T38" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U38" t="s">
+        <v>4</v>
+      </c>
+      <c r="V38" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE38" t="s">
         <v>88</v>
-      </c>
-      <c r="V38" t="s">
-        <v>89</v>
-      </c>
-      <c r="W38" t="s">
-        <v>11</v>
-      </c>
-      <c r="X38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="4">
-        <v>56.024169999999998</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>37.894297999999999</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>87</v>
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" t="s">
@@ -4058,10 +4071,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -4081,10 +4094,10 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K39" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4094,25 +4107,29 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.375</v>
       </c>
       <c r="T39" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.458333333336</v>
       </c>
       <c r="U39" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="V39" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="W39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>55.917971999999999</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>37.576962999999999</v>
+      </c>
       <c r="AA39" t="s">
         <v>3</v>
       </c>
@@ -4120,13 +4137,13 @@
         <v>3</v>
       </c>
       <c r="AC39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD39" t="s">
         <v>3</v>
       </c>
       <c r="AE39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" t="s">
@@ -4138,10 +4155,10 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -4161,10 +4178,10 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K40" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -4174,28 +4191,28 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="2">
-        <v>45502.375</v>
+        <v>45558.5</v>
       </c>
       <c r="T40" s="2">
-        <v>45502.458333333336</v>
+        <v>45558.625</v>
       </c>
       <c r="U40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W40" t="s">
         <v>11</v>
       </c>
       <c r="X40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y40" s="4">
-        <v>55.917971999999999</v>
+        <v>55.918767000000003</v>
       </c>
       <c r="Z40" s="4">
-        <v>37.576962999999999</v>
+        <v>37.571649999999998</v>
       </c>
       <c r="AA40" t="s">
         <v>3</v>
@@ -4204,13 +4221,13 @@
         <v>3</v>
       </c>
       <c r="AC40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD40" t="s">
         <v>3</v>
       </c>
       <c r="AE40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AF40" s="3"/>
       <c r="AG40" t="s">
@@ -4222,10 +4239,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -4245,10 +4262,10 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K41" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4258,43 +4275,39 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="2">
-        <v>45502.5</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T41" s="2">
-        <v>45502.625</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U41" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE41" t="s">
         <v>95</v>
-      </c>
-      <c r="V41" t="s">
-        <v>96</v>
-      </c>
-      <c r="W41" t="s">
-        <v>11</v>
-      </c>
-      <c r="X41" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="4">
-        <v>55.918767000000003</v>
-      </c>
-      <c r="Z41" s="4">
-        <v>37.571649999999998</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>92</v>
       </c>
       <c r="AF41" s="3"/>
       <c r="AG41" t="s">
@@ -4306,10 +4319,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -4329,10 +4342,10 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K42" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -4342,25 +4355,29 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T42" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.375</v>
       </c>
       <c r="U42" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="V42" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="W42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>55.463819000000001</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>37.839734999999997</v>
+      </c>
       <c r="AA42" t="s">
         <v>3</v>
       </c>
@@ -4368,13 +4385,13 @@
         <v>3</v>
       </c>
       <c r="AC42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AD42" t="s">
         <v>3</v>
       </c>
       <c r="AE42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" t="s">
@@ -4386,10 +4403,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -4409,10 +4426,10 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K43" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4422,28 +4439,28 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T43" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W43" t="s">
         <v>11</v>
       </c>
       <c r="X43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y43" s="4">
-        <v>55.463819000000001</v>
+        <v>55.428714999999997</v>
       </c>
       <c r="Z43" s="4">
-        <v>37.839734999999997</v>
+        <v>37.707735999999997</v>
       </c>
       <c r="AA43" t="s">
         <v>3</v>
@@ -4452,13 +4469,13 @@
         <v>3</v>
       </c>
       <c r="AC43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AD43" t="s">
         <v>3</v>
       </c>
       <c r="AE43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" t="s">
@@ -4470,10 +4487,10 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -4493,10 +4510,10 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K44" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -4506,22 +4523,22 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="2">
-        <v>45502.375</v>
+        <v>45558.375</v>
       </c>
       <c r="T44" s="2">
-        <v>45502.458333333336</v>
+        <v>45558.458333333336</v>
       </c>
       <c r="U44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="W44" t="s">
         <v>11</v>
       </c>
       <c r="X44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y44" s="4">
         <v>55.428939</v>
@@ -4536,13 +4553,13 @@
         <v>3</v>
       </c>
       <c r="AC44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AD44" t="s">
         <v>3</v>
       </c>
       <c r="AE44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AF44" s="3"/>
       <c r="AG44" t="s">
@@ -4554,10 +4571,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -4590,25 +4607,29 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T45" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="U45" t="s">
+        <v>102</v>
+      </c>
+      <c r="V45" t="s">
+        <v>103</v>
+      </c>
+      <c r="W45" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="3">
         <v>4</v>
       </c>
-      <c r="V45" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" t="s">
-        <v>6</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
+      <c r="Y45" s="4">
+        <v>55.146830000000001</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>37.575268999999999</v>
+      </c>
       <c r="AA45" t="s">
         <v>3</v>
       </c>
@@ -4616,13 +4637,13 @@
         <v>3</v>
       </c>
       <c r="AC45" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AD45" t="s">
         <v>3</v>
       </c>
       <c r="AE45" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AF45" s="3"/>
       <c r="AG45" t="s">
@@ -4637,7 +4658,7 @@
         <v>104</v>
       </c>
       <c r="B46" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -4657,10 +4678,10 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3">
-        <v>2775</v>
+        <v>3330</v>
       </c>
       <c r="K46" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -4670,29 +4691,25 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T46" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U46" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="V46" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="W46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X46" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>55.854982999999997</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>36.790616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
       <c r="AA46" t="s">
         <v>3</v>
       </c>
@@ -4718,10 +4735,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -4741,10 +4758,10 @@
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
-        <v>1480</v>
+        <v>3330</v>
       </c>
       <c r="K47" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -4754,25 +4771,29 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T47" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.375</v>
       </c>
       <c r="U47" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="V47" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="W47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>55.854982999999997</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>36.790616</v>
+      </c>
       <c r="AA47" t="s">
         <v>3</v>
       </c>
@@ -4780,13 +4801,13 @@
         <v>3</v>
       </c>
       <c r="AC47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AD47" t="s">
         <v>3</v>
       </c>
       <c r="AE47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AF47" s="3"/>
       <c r="AG47" t="s">
@@ -4801,7 +4822,7 @@
         <v>109</v>
       </c>
       <c r="B48" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -4834,29 +4855,25 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="2">
-        <v>45502.291666666664</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T48" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U48" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="V48" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="W48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X48" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="4">
-        <v>55.826894000000003</v>
-      </c>
-      <c r="Z48" s="4">
-        <v>38.389432999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
       <c r="AA48" t="s">
         <v>3</v>
       </c>
@@ -4882,10 +4899,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -4905,10 +4922,10 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K49" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4918,25 +4935,29 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.375</v>
       </c>
       <c r="T49" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.458333333336</v>
       </c>
       <c r="U49" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="V49" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="W49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>55.829067000000002</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>37.410556</v>
+      </c>
       <c r="AA49" t="s">
         <v>3</v>
       </c>
@@ -4944,13 +4965,13 @@
         <v>3</v>
       </c>
       <c r="AC49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AD49" t="s">
         <v>3</v>
       </c>
       <c r="AE49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AF49" s="3"/>
       <c r="AG49" t="s">
@@ -4962,10 +4983,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -4985,10 +5006,10 @@
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K50" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -4998,28 +5019,28 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.375</v>
       </c>
       <c r="T50" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.625</v>
       </c>
       <c r="U50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W50" t="s">
         <v>11</v>
       </c>
       <c r="X50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="4">
-        <v>55.492686999999997</v>
+        <v>56.115402000000003</v>
       </c>
       <c r="Z50" s="4">
-        <v>38.156230000000001</v>
+        <v>37.180309000000001</v>
       </c>
       <c r="AA50" t="s">
         <v>3</v>
@@ -5028,13 +5049,13 @@
         <v>3</v>
       </c>
       <c r="AC50" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AD50" t="s">
         <v>3</v>
       </c>
       <c r="AE50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AF50" s="3"/>
       <c r="AG50" t="s">
@@ -5046,10 +5067,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B51" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -5069,10 +5090,10 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
-        <v>3330</v>
+        <v>1480</v>
       </c>
       <c r="K51" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -5082,25 +5103,29 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.583333333336</v>
       </c>
       <c r="T51" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.625</v>
       </c>
       <c r="U51" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="V51" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="W51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>56.408890999999997</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>37.521856999999997</v>
+      </c>
       <c r="AA51" t="s">
         <v>3</v>
       </c>
@@ -5108,13 +5133,13 @@
         <v>3</v>
       </c>
       <c r="AC51" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD51" t="s">
         <v>3</v>
       </c>
       <c r="AE51" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AF51" s="3"/>
       <c r="AG51" t="s">
@@ -5126,10 +5151,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -5149,10 +5174,10 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K52" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -5162,29 +5187,25 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T52" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U52" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="V52" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="W52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X52" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="4">
-        <v>55.492686999999997</v>
-      </c>
-      <c r="Z52" s="4">
-        <v>38.156230000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
       <c r="AA52" t="s">
         <v>3</v>
       </c>
@@ -5192,13 +5213,13 @@
         <v>3</v>
       </c>
       <c r="AC52" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE52" t="s">
         <v>120</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>121</v>
       </c>
       <c r="AF52" s="3"/>
       <c r="AG52" t="s">
@@ -5210,10 +5231,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -5233,10 +5254,10 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3">
-        <v>1480</v>
+        <v>2775</v>
       </c>
       <c r="K53" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -5246,25 +5267,29 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.291666666664</v>
       </c>
       <c r="T53" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="U53" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="V53" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="W53" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>55.826894000000003</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>38.389432999999997</v>
+      </c>
       <c r="AA53" t="s">
         <v>3</v>
       </c>
@@ -5272,13 +5297,13 @@
         <v>3</v>
       </c>
       <c r="AC53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AD53" t="s">
         <v>3</v>
       </c>
       <c r="AE53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
@@ -5290,10 +5315,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -5326,43 +5351,39 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T54" s="2">
-        <v>45502.5</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U54" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" t="s">
+        <v>6</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE54" t="s">
         <v>125</v>
-      </c>
-      <c r="V54" t="s">
-        <v>126</v>
-      </c>
-      <c r="W54" t="s">
-        <v>11</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="4">
-        <v>55.355105999999999</v>
-      </c>
-      <c r="Z54" s="4">
-        <v>37.626564000000002</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>124</v>
       </c>
       <c r="AF54" s="3"/>
       <c r="AG54" t="s">
@@ -5374,10 +5395,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -5396,9 +5417,11 @@
         <v>3</v>
       </c>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="J55" s="3">
+        <v>1480</v>
+      </c>
       <c r="K55" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -5408,25 +5431,29 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T55" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="U55" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="V55" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="W55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X55" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>55.492686999999997</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>38.156230000000001</v>
+      </c>
       <c r="AA55" t="s">
         <v>3</v>
       </c>
@@ -5434,13 +5461,13 @@
         <v>3</v>
       </c>
       <c r="AC55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD55" t="s">
         <v>3</v>
       </c>
       <c r="AE55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AF55" s="3"/>
       <c r="AG55" t="s">
@@ -5452,10 +5479,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B56" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -5474,9 +5501,11 @@
         <v>3</v>
       </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="3">
+        <v>3330</v>
+      </c>
       <c r="K56" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -5486,43 +5515,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="2">
-        <v>45502.354166666664</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T56" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U56" t="s">
+        <v>4</v>
+      </c>
+      <c r="V56" t="s">
+        <v>5</v>
+      </c>
+      <c r="W56" t="s">
+        <v>6</v>
+      </c>
+      <c r="X56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE56" t="s">
         <v>130</v>
-      </c>
-      <c r="V56" t="s">
-        <v>131</v>
-      </c>
-      <c r="W56" t="s">
-        <v>11</v>
-      </c>
-      <c r="X56" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="4">
-        <v>55.482719000000003</v>
-      </c>
-      <c r="Z56" s="4">
-        <v>37.564230999999999</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>129</v>
       </c>
       <c r="AF56" s="3"/>
       <c r="AG56" t="s">
@@ -5534,10 +5559,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -5557,10 +5582,10 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3">
-        <v>1295</v>
+        <v>3330</v>
       </c>
       <c r="K57" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -5570,25 +5595,29 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T57" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="U57" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="V57" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="W57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>55.492686999999997</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>38.156230000000001</v>
+      </c>
       <c r="AA57" t="s">
         <v>3</v>
       </c>
@@ -5596,13 +5625,13 @@
         <v>3</v>
       </c>
       <c r="AC57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AD57" t="s">
         <v>3</v>
       </c>
       <c r="AE57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF57" s="3"/>
       <c r="AG57" t="s">
@@ -5614,16 +5643,16 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>132</v>
-      </c>
-      <c r="B58" s="1">
-        <v>45502</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" t="s">
@@ -5637,10 +5666,10 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
-        <v>1295</v>
+        <v>6105</v>
       </c>
       <c r="K58" s="3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -5650,29 +5679,25 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="2">
-        <v>45502.354166666664</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T58" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U58" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="V58" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="W58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X58" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="4">
-        <v>55.241573000000002</v>
-      </c>
-      <c r="Z58" s="4">
-        <v>36.663254000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
       <c r="AA58" t="s">
         <v>3</v>
       </c>
@@ -5698,16 +5723,16 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B59" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" t="s">
@@ -5720,9 +5745,11 @@
         <v>3</v>
       </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="J59" s="3">
+        <v>6105</v>
+      </c>
       <c r="K59" s="3">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -5732,25 +5759,29 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T59" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="U59" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="V59" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="W59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>55.492686999999997</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>38.156230000000001</v>
+      </c>
       <c r="AA59" t="s">
         <v>3</v>
       </c>
@@ -5758,13 +5789,13 @@
         <v>3</v>
       </c>
       <c r="AC59" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AD59" t="s">
         <v>3</v>
       </c>
       <c r="AE59" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AF59" s="3"/>
       <c r="AG59" t="s">
@@ -5776,10 +5807,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -5798,7 +5829,9 @@
         <v>3</v>
       </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="J60" s="3">
+        <v>2775</v>
+      </c>
       <c r="K60" s="3">
         <v>15</v>
       </c>
@@ -5810,29 +5843,25 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="2">
-        <v>45502.333333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T60" s="2">
-        <v>45502.375</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U60" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="V60" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="W60" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X60" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="4">
-        <v>55.472161999999997</v>
-      </c>
-      <c r="Z60" s="4">
-        <v>37.753266000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
       <c r="AA60" t="s">
         <v>3</v>
       </c>
@@ -5840,13 +5869,13 @@
         <v>3</v>
       </c>
       <c r="AC60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AD60" t="s">
         <v>3</v>
       </c>
       <c r="AE60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF60" s="3"/>
       <c r="AG60" t="s">
@@ -5858,10 +5887,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B61" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -5881,10 +5910,10 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K61" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -5894,25 +5923,29 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T61" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.5</v>
       </c>
       <c r="U61" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="V61" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="W61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>55.355105999999999</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>37.626564000000002</v>
+      </c>
       <c r="AA61" t="s">
         <v>3</v>
       </c>
@@ -5920,13 +5953,13 @@
         <v>3</v>
       </c>
       <c r="AC61" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AD61" t="s">
         <v>3</v>
       </c>
       <c r="AE61" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AF61" s="3"/>
       <c r="AG61" t="s">
@@ -5938,10 +5971,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -5961,10 +5994,10 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K62" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -5974,28 +6007,28 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="2">
-        <v>45502.3125</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T62" s="2">
-        <v>45502.375</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="U62" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="V62" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="W62" t="s">
         <v>11</v>
       </c>
       <c r="X62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y62" s="4">
-        <v>55.755819000000002</v>
+        <v>55.333497999999999</v>
       </c>
       <c r="Z62" s="4">
-        <v>37.617643999999999</v>
+        <v>37.673726000000002</v>
       </c>
       <c r="AA62" t="s">
         <v>3</v>
@@ -6004,13 +6037,13 @@
         <v>3</v>
       </c>
       <c r="AC62" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AD62" t="s">
         <v>3</v>
       </c>
       <c r="AE62" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AF62" s="3"/>
       <c r="AG62" t="s">
@@ -6025,7 +6058,7 @@
         <v>142</v>
       </c>
       <c r="B63" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -6045,10 +6078,10 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K63" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -6058,29 +6091,25 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="2">
-        <v>45502.458333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T63" s="2">
-        <v>45502.5</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U63" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="V63" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="W63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X63" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y63" s="4">
-        <v>56.130994000000001</v>
-      </c>
-      <c r="Z63" s="4">
-        <v>38.306068000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
       <c r="AA63" t="s">
         <v>3</v>
       </c>
@@ -6106,10 +6135,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B64" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -6129,10 +6158,10 @@
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K64" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -6142,25 +6171,29 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T64" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.375</v>
       </c>
       <c r="U64" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="V64" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="W64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>55.472161999999997</v>
+      </c>
+      <c r="Z64" s="4">
+        <v>37.753266000000004</v>
+      </c>
       <c r="AA64" t="s">
         <v>3</v>
       </c>
@@ -6168,13 +6201,13 @@
         <v>3</v>
       </c>
       <c r="AC64" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AD64" t="s">
         <v>3</v>
       </c>
       <c r="AE64" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AF64" s="3"/>
       <c r="AG64" t="s">
@@ -6186,10 +6219,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B65" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -6209,10 +6242,10 @@
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K65" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -6222,28 +6255,28 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="2">
-        <v>45502.25</v>
+        <v>45558.333333333336</v>
       </c>
       <c r="T65" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.583333333336</v>
       </c>
       <c r="U65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="V65" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="W65" t="s">
         <v>11</v>
       </c>
       <c r="X65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y65" s="4">
-        <v>55.628413000000002</v>
+        <v>55.898915000000002</v>
       </c>
       <c r="Z65" s="4">
-        <v>37.308515999999997</v>
+        <v>37.674866000000002</v>
       </c>
       <c r="AA65" t="s">
         <v>3</v>
@@ -6252,13 +6285,13 @@
         <v>3</v>
       </c>
       <c r="AC65" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AD65" t="s">
         <v>3</v>
       </c>
       <c r="AE65" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AF65" s="3"/>
       <c r="AG65" t="s">
@@ -6273,7 +6306,7 @@
         <v>149</v>
       </c>
       <c r="B66" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -6306,29 +6339,25 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="2">
-        <v>45502.25</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T66" s="2">
-        <v>45502.541666666664</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U66" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="V66" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="W66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X66" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y66" s="4">
-        <v>55.353960000000001</v>
-      </c>
-      <c r="Z66" s="4">
-        <v>37.625844999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
       <c r="AA66" t="s">
         <v>3</v>
       </c>
@@ -6354,10 +6383,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B67" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -6390,25 +6419,29 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.458333333336</v>
       </c>
       <c r="T67" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.5</v>
       </c>
       <c r="U67" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="V67" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="W67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X67" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>55.696655999999997</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>37.424219000000001</v>
+      </c>
       <c r="AA67" t="s">
         <v>3</v>
       </c>
@@ -6416,13 +6449,13 @@
         <v>3</v>
       </c>
       <c r="AC67" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AD67" t="s">
         <v>3</v>
       </c>
       <c r="AE67" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AF67" s="3"/>
       <c r="AG67" t="s">
@@ -6434,10 +6467,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B68" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -6470,28 +6503,28 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="2">
-        <v>45502.166666666664</v>
+        <v>45558.458333333336</v>
       </c>
       <c r="T68" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.5</v>
       </c>
       <c r="U68" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="V68" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="W68" t="s">
         <v>11</v>
       </c>
       <c r="X68" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y68" s="4">
-        <v>55.598261999999998</v>
+        <v>56.130994000000001</v>
       </c>
       <c r="Z68" s="4">
-        <v>37.473897999999998</v>
+        <v>38.306068000000003</v>
       </c>
       <c r="AA68" t="s">
         <v>3</v>
@@ -6500,13 +6533,13 @@
         <v>3</v>
       </c>
       <c r="AC68" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AD68" t="s">
         <v>3</v>
       </c>
       <c r="AE68" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AF68" s="3"/>
       <c r="AG68" t="s">
@@ -6518,10 +6551,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B69" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -6554,28 +6587,28 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="2">
-        <v>45502.166666666664</v>
+        <v>45558.645833333336</v>
       </c>
       <c r="T69" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.6875</v>
       </c>
       <c r="U69" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="V69" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="W69" t="s">
         <v>11</v>
       </c>
       <c r="X69" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y69" s="4">
-        <v>54.804591000000002</v>
+        <v>55.755819000000002</v>
       </c>
       <c r="Z69" s="4">
-        <v>21.903918000000001</v>
+        <v>37.617643999999999</v>
       </c>
       <c r="AA69" t="s">
         <v>3</v>
@@ -6584,13 +6617,13 @@
         <v>3</v>
       </c>
       <c r="AC69" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AD69" t="s">
         <v>3</v>
       </c>
       <c r="AE69" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AF69" s="3"/>
       <c r="AG69" t="s">
@@ -6602,10 +6635,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B70" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -6638,10 +6671,10 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="2">
-        <v>45502.208333333336</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="T70" s="2">
-        <v>45502.416666666664</v>
+        <v>45558.416666666664</v>
       </c>
       <c r="U70" t="s">
         <v>4</v>
@@ -6664,13 +6697,13 @@
         <v>3</v>
       </c>
       <c r="AC70" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AD70" t="s">
         <v>3</v>
       </c>
       <c r="AE70" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AF70" s="3"/>
       <c r="AG70" t="s">
@@ -6682,10 +6715,10 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B71" s="1">
-        <v>45502</v>
+        <v>45558</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -6718,16 +6751,16 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="2">
-        <v>45502.541666666664</v>
+        <v>45558.166666666664</v>
       </c>
       <c r="T71" s="2">
-        <v>45502.666666666664</v>
+        <v>45558.208333333336</v>
       </c>
       <c r="U71" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="V71" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="W71" t="s">
         <v>11</v>
@@ -6736,10 +6769,10 @@
         <v>1</v>
       </c>
       <c r="Y71" s="4">
-        <v>55.790129999999998</v>
+        <v>55.599966000000002</v>
       </c>
       <c r="Z71" s="4">
-        <v>37.380363000000003</v>
+        <v>37.472966999999997</v>
       </c>
       <c r="AA71" t="s">
         <v>3</v>
@@ -6748,19 +6781,515 @@
         <v>3</v>
       </c>
       <c r="AC71" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AD71" t="s">
         <v>3</v>
       </c>
       <c r="AE71" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AF71" s="3"/>
       <c r="AG71" t="s">
         <v>3</v>
       </c>
       <c r="AH71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
+        <v>3330</v>
+      </c>
+      <c r="K72" s="3">
+        <v>18</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="2">
+        <v>45558.208333333336</v>
+      </c>
+      <c r="T72" s="2">
+        <v>45558.416666666664</v>
+      </c>
+      <c r="U72" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" t="s">
+        <v>6</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF72" s="3"/>
+      <c r="AG72" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <v>3330</v>
+      </c>
+      <c r="K73" s="3">
+        <v>18</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="2">
+        <v>45558.166666666664</v>
+      </c>
+      <c r="T73" s="2">
+        <v>45558.208333333336</v>
+      </c>
+      <c r="U73" t="s">
+        <v>166</v>
+      </c>
+      <c r="V73" t="s">
+        <v>167</v>
+      </c>
+      <c r="W73" t="s">
+        <v>11</v>
+      </c>
+      <c r="X73" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>55.598261999999998</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>37.473897999999998</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF73" s="3"/>
+      <c r="AG73" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
+        <v>3330</v>
+      </c>
+      <c r="K74" s="3">
+        <v>18</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="2">
+        <v>45558.166666666664</v>
+      </c>
+      <c r="T74" s="2">
+        <v>45558.208333333336</v>
+      </c>
+      <c r="U74" t="s">
+        <v>161</v>
+      </c>
+      <c r="V74" t="s">
+        <v>162</v>
+      </c>
+      <c r="W74" t="s">
+        <v>11</v>
+      </c>
+      <c r="X74" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y74" s="4">
+        <v>55.599966000000002</v>
+      </c>
+      <c r="Z74" s="4">
+        <v>37.472966999999997</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF74" s="3"/>
+      <c r="AG74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
+        <v>3330</v>
+      </c>
+      <c r="K75" s="3">
+        <v>18</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="2">
+        <v>45558.208333333336</v>
+      </c>
+      <c r="T75" s="2">
+        <v>45558.416666666664</v>
+      </c>
+      <c r="U75" t="s">
+        <v>4</v>
+      </c>
+      <c r="V75" t="s">
+        <v>5</v>
+      </c>
+      <c r="W75" t="s">
+        <v>6</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF75" s="3"/>
+      <c r="AG75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>3330</v>
+      </c>
+      <c r="K76" s="3">
+        <v>18</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="2">
+        <v>45558.166666666664</v>
+      </c>
+      <c r="T76" s="2">
+        <v>45558.208333333336</v>
+      </c>
+      <c r="U76" t="s">
+        <v>161</v>
+      </c>
+      <c r="V76" t="s">
+        <v>162</v>
+      </c>
+      <c r="W76" t="s">
+        <v>11</v>
+      </c>
+      <c r="X76" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="4">
+        <v>55.599966000000002</v>
+      </c>
+      <c r="Z76" s="4">
+        <v>37.472966999999997</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF76" s="3"/>
+      <c r="AG76" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
+        <v>3330</v>
+      </c>
+      <c r="K77" s="3">
+        <v>18</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="2">
+        <v>45558.166666666664</v>
+      </c>
+      <c r="T77" s="2">
+        <v>45558.208333333336</v>
+      </c>
+      <c r="U77" t="s">
+        <v>166</v>
+      </c>
+      <c r="V77" t="s">
+        <v>167</v>
+      </c>
+      <c r="W77" t="s">
+        <v>11</v>
+      </c>
+      <c r="X77" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>55.598261999999998</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>37.473897999999998</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF77" s="3"/>
+      <c r="AG77" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH77" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/resources/converter/artfruit/out/art_fruit_out.xlsx
+++ b/src/test/resources/converter/artfruit/out/art_fruit_out.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\1_PROJECTS\AdvantumConverter\src\test\resources\converter\artfruit\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D737B6D-4330-4CB7-A911-60C88E570D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C984BA-F6B3-4372-8C01-981CA0BEDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экспорт" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="171">
-  <si>
-    <t>6_40789</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="251">
+  <si>
+    <t>6_40823</t>
   </si>
   <si>
     <t>АртФрут</t>
@@ -34,505 +34,745 @@
     <t/>
   </si>
   <si>
-    <t>Склад Артфрут</t>
-  </si>
-  <si>
-    <t>г. Москва,поселение марушкинское вн.тер.г. 63 кв-л, д.1Б стр 8, скл б/н</t>
+    <t>Гринфилдс-Логистика_г.Москва, внутригородская территория поселение Марушкинское, кв-л № 63, дом № 1Б,стр. 8</t>
+  </si>
+  <si>
+    <t>г.Москва, внутригородская территория поселение Марушкинское, кв-л № 63, дом № 1Б,стр. 8</t>
+  </si>
+  <si>
+    <t>Разгрузка</t>
+  </si>
+  <si>
+    <t>М617ОЕ799</t>
+  </si>
+  <si>
+    <t>Дубов Денис Александрович</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, ул. 1-я Дубровская, д.13А, стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. 1-я Дубровская, д.13А, стр. 1</t>
+  </si>
+  <si>
+    <t>ГФЛ00057781</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. 7-я Кожуховская, д. 9</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. 7-я Кожуховская, д. 9</t>
+  </si>
+  <si>
+    <t>ГФЛ00057875</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. Гурьянова, д. 2 лит. А</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Гурьянова, д. 2 лит. А</t>
+  </si>
+  <si>
+    <t>ГФЛ00057870</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_Шоссейная ул., д.2Б (МЕТРО-приемка ОВОЩИ/ФРУКТЫ).</t>
+  </si>
+  <si>
+    <t>Шоссейная ул., д.2Б (МЕТРО-приемка ОВОЩИ/ФРУКТЫ).</t>
+  </si>
+  <si>
+    <t>ОФЛ00028430, ГФЛ00057774</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_М.О., г.Котельники, Новорязанское ш., д. 5.</t>
+  </si>
+  <si>
+    <t>М.О., г.Котельники, Новорязанское ш., д. 5.</t>
+  </si>
+  <si>
+    <t>ГФЛ00057780, ОФЛ00028432</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, пр-кт Буденного, д.18,Б</t>
+  </si>
+  <si>
+    <t>г. Москва, пр-кт Буденного, д.18,Б</t>
+  </si>
+  <si>
+    <t>ГФЛ00057869</t>
+  </si>
+  <si>
+    <t>САНТОРГ_г. Москва, Семеновская пл., д. 1, пом. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, Семеновская пл., д. 1, пом. 1</t>
+  </si>
+  <si>
+    <t>ГФЛ00057742</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. Бауманская, д.32, стр.2</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Бауманская, д.32, стр.2</t>
+  </si>
+  <si>
+    <t>ГФЛ00057868</t>
+  </si>
+  <si>
+    <t>13_40823</t>
   </si>
   <si>
     <t>Погрузка</t>
   </si>
   <si>
-    <t>М657ОЕ799</t>
+    <t>Р801УР799</t>
+  </si>
+  <si>
+    <t>Чернышев Денис Игорьевич</t>
+  </si>
+  <si>
+    <t>ИП Шишина А.К._141720, Московская обл., г. Долгопрудный, мкр. Шереметьевский, ул. Южная, д.1, стр.18</t>
+  </si>
+  <si>
+    <t>141720, Московская обл., г. Долгопрудный, мкр. Шереметьевский, ул. Южная, д.1, стр.18</t>
+  </si>
+  <si>
+    <t>ГФЛ00057815</t>
+  </si>
+  <si>
+    <t>ИП Пономаренко В.Б._М.О.,г. Химки, Шереметьевское Шоссе Владение 28 с1 / ООО Эйр Транс/</t>
+  </si>
+  <si>
+    <t>М.О.,г. Химки, Шереметьевское Шоссе Владение 28 с1 / ООО Эйр Транс/</t>
+  </si>
+  <si>
+    <t>ГФЛ00057273</t>
+  </si>
+  <si>
+    <t>Вкусная Пекарня_г. Москва , Волоколамское ш., д.89</t>
+  </si>
+  <si>
+    <t>г. Москва , Волоколамское ш., д.89</t>
+  </si>
+  <si>
+    <t>ГФЛ00057921</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, Ленинградское шоссе, д.71 Г</t>
+  </si>
+  <si>
+    <t>г. Москва, Ленинградское шоссе, д.71 Г</t>
+  </si>
+  <si>
+    <t>ГФЛ00057764, ОФЛ00028428</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, Дмитровское шоссе, д.165Б</t>
+  </si>
+  <si>
+    <t>г. Москва, Дмитровское шоссе, д.165Б</t>
+  </si>
+  <si>
+    <t>ГФЛ00057770, ОФЛ00028427</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. Бибиревская д.10, корп.2</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Бибиревская д.10, корп.2</t>
+  </si>
+  <si>
+    <t>ГФЛ00057874</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, Мира проспект, д.211, корп.1.</t>
+  </si>
+  <si>
+    <t>г. Москва, Мира проспект, д.211, корп.1.</t>
+  </si>
+  <si>
+    <t>ГФЛ00057772, ОФЛ00028429</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва. Ярославское ш. д. 54</t>
+  </si>
+  <si>
+    <t>г. Москва. Ярославское ш. д. 54</t>
+  </si>
+  <si>
+    <t>ГФЛ00057867</t>
+  </si>
+  <si>
+    <t>23_40823</t>
+  </si>
+  <si>
+    <t>Р722УР799</t>
+  </si>
+  <si>
+    <t>Юсупов Марат Исхакович</t>
+  </si>
+  <si>
+    <t>Зельгрос (Магазины)_МО, г. Одинцово, ул. Восточная д.17А</t>
+  </si>
+  <si>
+    <t>МО, г. Одинцово, ул. Восточная д.17А</t>
+  </si>
+  <si>
+    <t>ГФЛ00057740</t>
+  </si>
+  <si>
+    <t>Зельгрос (Магазины)_г. Москва, поселение Внуковское, Боровское шоссе 29-й км., д. 4с1</t>
+  </si>
+  <si>
+    <t>г. Москва, поселение Внуковское, Боровское шоссе 29-й км., д. 4с1</t>
+  </si>
+  <si>
+    <t>ГФЛ00057787</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, п. Московский, кв-л 34, д. 3, стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, п. Московский, кв-л 34, д. 3, стр. 1</t>
+  </si>
+  <si>
+    <t>ОФЛ00028431, ГФЛ00057776</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, Ленинский пр-кт, д.123, В</t>
+  </si>
+  <si>
+    <t>г. Москва, Ленинский пр-кт, д.123, В</t>
+  </si>
+  <si>
+    <t>ГФЛ00057876</t>
+  </si>
+  <si>
+    <t>РОБИНСОН_г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
+  </si>
+  <si>
+    <t>ГФЛ00057798</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, ул. Рябиновая д.59.</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д.59.</t>
+  </si>
+  <si>
+    <t>ГФЛ00057767</t>
+  </si>
+  <si>
+    <t>МИЛФРЕШ_г. Москва, Очаковское шоссе, д.40, стр.2</t>
+  </si>
+  <si>
+    <t>г. Москва, Очаковское шоссе, д.40, стр.2</t>
+  </si>
+  <si>
+    <t>ГФЛ00057924</t>
+  </si>
+  <si>
+    <t>АЙВОРИ_г. Москва, ул. Рябиновая д. 53, стр.2</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д. 53, стр.2</t>
+  </si>
+  <si>
+    <t>ГФЛ00057878</t>
+  </si>
+  <si>
+    <t>Хорека-Трейдинг_г. Москва, ул. Рябиновая д. 38 стр 6</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д. 38 стр 6</t>
+  </si>
+  <si>
+    <t>ГФЛ00057795</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
+  </si>
+  <si>
+    <t>ГФЛ00057873</t>
+  </si>
+  <si>
+    <t>31_40823</t>
+  </si>
+  <si>
+    <t>А749ЕК977</t>
   </si>
   <si>
     <t>Загидов Руслан Османович</t>
   </si>
   <si>
-    <t>Лента_г. Москва, ул. 7-я Кожуховская, д. 9</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. 7-я Кожуховская, д. 9</t>
-  </si>
-  <si>
-    <t>Разгрузка</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. Гурьянова, д. 2 лит. А</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Гурьянова, д. 2 лит. А</t>
-  </si>
-  <si>
-    <t>ФК "ЭКЗОТИКА"_г. Москва, Автомобильный проезд, 10с14</t>
-  </si>
-  <si>
-    <t>г. Москва, Автомобильный проезд, 10с14</t>
-  </si>
-  <si>
-    <t>АЗБУКА ВКУСА ПРОИЗВОДСТВО_г. Москва, ул. Талалихина д.41 стр.57</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Талалихина д.41 стр.57</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. Бауманская, д.32, стр.2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Бауманская, д.32, стр.2</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, пр-кт Буденного, д.18,Б</t>
-  </si>
-  <si>
-    <t>г. Москва, пр-кт Буденного, д.18,Б</t>
-  </si>
-  <si>
-    <t>САНТОРГ_г. Москва, Семеновская пл., д. 1, пом. 1</t>
-  </si>
-  <si>
-    <t>г. Москва, Семеновская пл., д. 1, пом. 1</t>
-  </si>
-  <si>
-    <t>Технический контрагент для заказов_ г. Москва, Рязанский проспект, д. 27</t>
-  </si>
-  <si>
-    <t>г. Москва, Рязанский проспект, д. 27</t>
-  </si>
-  <si>
-    <t>АШАН-МАГАЗИНЫ_г. Москва, ул. Вавилова д. 3</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Вавилова д. 3</t>
-  </si>
-  <si>
-    <t>23_40789</t>
+    <t>Лента_г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
+  </si>
+  <si>
+    <t>г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
+  </si>
+  <si>
+    <t>ГФЛ00057877</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, ул. Дорожная д.1, корп.1.</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Дорожная д.1, корп.1.</t>
+  </si>
+  <si>
+    <t>ГФЛ00057768</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, ул. Большая Черемушкинская, д.1</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Большая Черемушкинская, д.1</t>
+  </si>
+  <si>
+    <t>ГФЛ00057872</t>
+  </si>
+  <si>
+    <t>РОЯЛПРОДУКТ_г. Москва, 1-й Сетуньский проезд д.10 с13</t>
+  </si>
+  <si>
+    <t>г. Москва, 1-й Сетуньский проезд д.10 с13</t>
+  </si>
+  <si>
+    <t>ГФЛ00057804</t>
+  </si>
+  <si>
+    <t>ТОО Sauda Market LTD (ЕАЭС - Казахстан)_г. Москва, ул. Маршала Жукова д.1</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Маршала Жукова д.1</t>
+  </si>
+  <si>
+    <t>ОФЛ00028398</t>
+  </si>
+  <si>
+    <t>Лента_г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
+  </si>
+  <si>
+    <t>г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
+  </si>
+  <si>
+    <t>ГФЛ00057871</t>
+  </si>
+  <si>
+    <t>49_40823</t>
+  </si>
+  <si>
+    <t>Юдин Андрей Иванович</t>
+  </si>
+  <si>
+    <t>ТСК "Сколково"_Московская обл, п. Заречье, ул. Торговая, 2стр1</t>
+  </si>
+  <si>
+    <t>Московская обл, п. Заречье, ул. Торговая, 2стр1</t>
+  </si>
+  <si>
+    <t>ОФЛ00028440</t>
+  </si>
+  <si>
+    <t>51_40823</t>
+  </si>
+  <si>
+    <t>А939ЕК977</t>
+  </si>
+  <si>
+    <t>Лютиков Виталий Николаевич</t>
+  </si>
+  <si>
+    <t>Дикси_г. Москва, пос. Марушкинское, вблизи деревни Шарапово (ВНУКОВО)</t>
+  </si>
+  <si>
+    <t>г. Москва, пос. Марушкинское, вблизи деревни Шарапово (ВНУКОВО)</t>
+  </si>
+  <si>
+    <t>ГФЛ00057946, ОФЛ00028399, ГФЛ00057741</t>
+  </si>
+  <si>
+    <t>ХорекаЭкспресс_г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
+  </si>
+  <si>
+    <t>г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
+  </si>
+  <si>
+    <t>ГФЛ00057788</t>
+  </si>
+  <si>
+    <t>Х5 (Онлайн-Гипермаркет)_г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
+  </si>
+  <si>
+    <t>г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
+  </si>
+  <si>
+    <t>ГФЛ00057566, ГФЛ00057573</t>
+  </si>
+  <si>
+    <t>54_40823</t>
+  </si>
+  <si>
+    <t>Р658УР799</t>
+  </si>
+  <si>
+    <t>Рощупкин Евгений Александрович</t>
+  </si>
+  <si>
+    <t>Глобус_М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
+  </si>
+  <si>
+    <t>М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
+  </si>
+  <si>
+    <t>ОФЛ00028438, ГФЛ00057765, ОФЛ00028402, ОФЛ00028406</t>
+  </si>
+  <si>
+    <t>55_40823</t>
+  </si>
+  <si>
+    <t>Р911УР799</t>
+  </si>
+  <si>
+    <t>Ковальчук Александр Александрович</t>
+  </si>
+  <si>
+    <t>АО Вкусвилл_М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
+  </si>
+  <si>
+    <t>М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
+  </si>
+  <si>
+    <t>ГФЛ00057660, ГФЛ00057278, ГФЛ00057659</t>
+  </si>
+  <si>
+    <t>Х5 (Онлайн-Гипермаркет)_М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
+  </si>
+  <si>
+    <t>М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
+  </si>
+  <si>
+    <t>ГФЛ00057574, ГФЛ00057593</t>
+  </si>
+  <si>
+    <t>Магнит (В1- Первый выбор)_141825 Дмитровский р-он, г. Дмитров, 4-й км. Автодор. Дмитров-Орудьево-Жуковка тер., вл. 57 .с18</t>
+  </si>
+  <si>
+    <t>141825 Дмитровский р-он, г. Дмитров, 4-й км. Автодор. Дмитров-Орудьево-Жуковка тер., вл. 57 .с18</t>
+  </si>
+  <si>
+    <t>ГФЛ00057272, ОФЛ00028436</t>
+  </si>
+  <si>
+    <t>56_40823</t>
   </si>
   <si>
     <t>Р703УР799</t>
   </si>
   <si>
-    <t>Александров Роман Сергеевич</t>
-  </si>
-  <si>
-    <t>ЦСЭМ "Московский"_М.О., Одинцовский г.о., д. Вырубово д.70</t>
-  </si>
-  <si>
-    <t>М.О., Одинцовский г.о., д. Вырубово д.70</t>
-  </si>
-  <si>
-    <t>Арника_г. Москва, ул. Рябиновая д. 32</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д. 32</t>
-  </si>
-  <si>
-    <t>РОБИНСОН_г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
-  </si>
-  <si>
-    <t>г. Москва, Новомещерский пр-д., д. 9, стр. 1</t>
-  </si>
-  <si>
-    <t>АКАССИЯ_г. Москва, ул. Рябиновая д.44 стр 28</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д.44 стр 28</t>
-  </si>
-  <si>
-    <t>МИЛФРЕШ_г. Москва, Очаковское шоссе, д.40, стр.2</t>
-  </si>
-  <si>
-    <t>г. Москва, Очаковское шоссе, д.40, стр.2</t>
-  </si>
-  <si>
-    <t>АЙВОРИ_г. Москва, ул. Рябиновая д. 53, стр.2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д. 53, стр.2</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
-  </si>
-  <si>
-    <t>г. Москва. д. Говорово, МКАД 47 км, влд., д.31,стр. 1</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, Ленинский пр-кт, д.123, В</t>
-  </si>
-  <si>
-    <t>г. Москва, Ленинский пр-кт, д.123, В</t>
-  </si>
-  <si>
-    <t>31_40789</t>
-  </si>
-  <si>
-    <t>Р757УР799</t>
-  </si>
-  <si>
-    <t>Кузин Олег Викторович</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
-  </si>
-  <si>
-    <t>г. Москва, Воскресенское п., Чечёрский пр-д, д. 51</t>
-  </si>
-  <si>
-    <t>АШАН-МАГАЗИНЫ_г.Москва, ул. Миклухо-Маклая д.32А</t>
-  </si>
-  <si>
-    <t>г.Москва, ул. Миклухо-Маклая д.32А</t>
-  </si>
-  <si>
-    <t>Зельгрос (Магазины)_Подольских Курсантов ул.д.26 стр.1</t>
-  </si>
-  <si>
-    <t>Подольских Курсантов ул.д.26 стр.1</t>
-  </si>
-  <si>
-    <t>ГАСТРОНОМ ВРЕМЕНА_г. Москва, Кутузовский проспект, д.48</t>
-  </si>
-  <si>
-    <t>г. Москва, Кутузовский проспект, д.48</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. Большая Черемушкинская, д.1</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Большая Черемушкинская, д.1</t>
-  </si>
-  <si>
-    <t>Х5 (Агроторг)_г.Москва, ул. Вятская д. 27, стр.22</t>
-  </si>
-  <si>
-    <t>г.Москва, ул. Вятская д. 27, стр.22</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
-  </si>
-  <si>
-    <t>г. Москва, проспект Маршала Жукова, д.42, стр. 1</t>
-  </si>
-  <si>
-    <t>&amp;Тимошенко П.В._Нижний Кисловский пер.,д.8/2, Совет Ветеранов-заезд с Малого Кисловского (Петр Алексеевич 8-903-217-93-87)</t>
-  </si>
-  <si>
-    <t>Нижний Кисловский пер.,д.8/2, Совет Ветеранов-заезд с Малого Кисловского (Петр Алексеевич 8-903-217-93-87)</t>
-  </si>
-  <si>
-    <t>51_40789</t>
-  </si>
-  <si>
-    <t>Р454УР799</t>
-  </si>
-  <si>
-    <t>Лютиков Виталий Николаевич</t>
-  </si>
-  <si>
-    <t>Магнолия (РЦ)_г. Москва, п. Марушкинское, вблизи д. Шарапово, Складской корпус № 4</t>
-  </si>
-  <si>
-    <t>г. Москва, п. Марушкинское, вблизи д. Шарапово, Складской корпус № 4</t>
-  </si>
-  <si>
-    <t>ХорекаЭкспресс_г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
-  </si>
-  <si>
-    <t>г. Москва , ул. Адмирала Корнилова д.1, стр. 1/ 10 склад</t>
-  </si>
-  <si>
-    <t>Х5 (Онлайн-Гипермаркет)_г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
-  </si>
-  <si>
-    <t>г. Москва, поселение Москвоский, д. Саларьево, д.22/2Б,</t>
-  </si>
-  <si>
-    <t>54_40789</t>
-  </si>
-  <si>
-    <t>Р801УР799</t>
-  </si>
-  <si>
-    <t>Саянов Максим Александрович</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва, ул. Бибиревская д.10, корп.2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Бибиревская д.10, корп.2</t>
-  </si>
-  <si>
-    <t>Глобус_М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
-  </si>
-  <si>
-    <t>М.О., г. Пушкино, Красноармейское шоссе, стр. 107/1</t>
-  </si>
-  <si>
-    <t>Лента_г. Москва. Ярославское ш. д. 54</t>
-  </si>
-  <si>
-    <t>г. Москва. Ярославское ш. д. 54</t>
-  </si>
-  <si>
-    <t>ИП Роздухов М. Е._г. Мытищи, ул. Фуражный пр., д.4</t>
-  </si>
-  <si>
-    <t>г. Мытищи, ул. Фуражный пр., д.4</t>
-  </si>
-  <si>
-    <t>55_40789</t>
-  </si>
-  <si>
-    <t>А176ЕК977</t>
-  </si>
-  <si>
-    <t>Удалов Михаил Юрьевич</t>
-  </si>
-  <si>
-    <t>АО Вкусвилл_М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
-  </si>
-  <si>
-    <t>М.О., Мытищи район, п. Вешки, территория ТПЗ Алтуфьево</t>
-  </si>
-  <si>
-    <t>Х5 (Онлайн-Гипермаркет)_М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
-  </si>
-  <si>
-    <t>М.О., г.о., Мытищи, пос. Вешки, Липкинское шоссе, 2-й километр, с8,</t>
-  </si>
-  <si>
-    <t>56_40789</t>
+    <t>Корольков Владимир Васильевич</t>
+  </si>
+  <si>
+    <t>АО Вкусвилл_М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
+  </si>
+  <si>
+    <t>М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
+  </si>
+  <si>
+    <t>ГФЛ00057663, ГФЛ00057280, ГФЛ00057657</t>
+  </si>
+  <si>
+    <t>57_40823</t>
+  </si>
+  <si>
+    <t>Р874УР799</t>
+  </si>
+  <si>
+    <t>Рябцев Сергей Вячеславович</t>
+  </si>
+  <si>
+    <t>АЗБУКА ВКУСА (РЦ МСК)_М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
+  </si>
+  <si>
+    <t>М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
+  </si>
+  <si>
+    <t>ГФЛ00057793, ГФЛ00057814, ОФЛ00028434</t>
+  </si>
+  <si>
+    <t>59_40823</t>
+  </si>
+  <si>
+    <t>Р759УР799</t>
+  </si>
+  <si>
+    <t>Корхов Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, ул.Маршала Прошлякова д.14</t>
+  </si>
+  <si>
+    <t>г. Москва, ул.Маршала Прошлякова д.14</t>
+  </si>
+  <si>
+    <t>ГФЛ00057771</t>
+  </si>
+  <si>
+    <t>Мираторг РЦ_М.О., Солнечногорский р-н, с.п. Пешковское , в р-не д. Шелепаново РЦ</t>
+  </si>
+  <si>
+    <t>М.О., Солнечногорский р-н, с.п. Пешковское , в р-не д. Шелепаново РЦ</t>
+  </si>
+  <si>
+    <t>ГФЛ00057592</t>
+  </si>
+  <si>
+    <t>68_40823</t>
+  </si>
+  <si>
+    <t>Р783УР799</t>
+  </si>
+  <si>
+    <t>Плотников Михаил Александрович</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри Магазин_г. Москва, МКАД, 104 км., д.6</t>
+  </si>
+  <si>
+    <t>г. Москва, МКАД, 104 км., д.6</t>
+  </si>
+  <si>
+    <t>ОФЛ00028426, ГФЛ00057773</t>
+  </si>
+  <si>
+    <t>Метро-Метро Кэш энд Керри РЦ_М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
+  </si>
+  <si>
+    <t>М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
+  </si>
+  <si>
+    <t>ГФЛ00057588, ГФЛ00057635</t>
+  </si>
+  <si>
+    <t>73_40823</t>
+  </si>
+  <si>
+    <t>ДА-ЛОГИСТИКА ООО</t>
+  </si>
+  <si>
+    <t>О491НС799</t>
+  </si>
+  <si>
+    <t>Еремин Юрий Николаевич</t>
+  </si>
+  <si>
+    <t>Х5 (РЦ)_М.О., Раменский р-н, с.Софьино</t>
+  </si>
+  <si>
+    <t>М.О., Раменский р-н, с.Софьино</t>
+  </si>
+  <si>
+    <t>ГФЛ00057567, ГФЛ00057586, ГФЛ00057597, ГФЛ00057531, ГФЛ00057596, ГФЛ00057649, ГФЛ00057222, ГФЛ00057743, ГФЛ00057744</t>
+  </si>
+  <si>
+    <t>75_40823</t>
+  </si>
+  <si>
+    <t>Р871УР799</t>
+  </si>
+  <si>
+    <t>Пашаев Абдулла Зубайругаджиевич</t>
+  </si>
+  <si>
+    <t>Лента(РЦ М и МО)_М.О., Чеховский р-н, д. Лешино</t>
+  </si>
+  <si>
+    <t>М.О., Чеховский р-н, д. Лешино</t>
+  </si>
+  <si>
+    <t>ГФЛ00057634, ГФЛ00057820, ГФЛ00057633</t>
+  </si>
+  <si>
+    <t>76_40823</t>
+  </si>
+  <si>
+    <t>В182АН977</t>
+  </si>
+  <si>
+    <t>Казанцев Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>Национальная фруктовая компания (МСК)_М.О.,Подольский район, с. Сынково, д. 77</t>
+  </si>
+  <si>
+    <t>М.О.,Подольский район, с. Сынково, д. 77</t>
+  </si>
+  <si>
+    <t>ГФЛ00057629, ГФЛ00057483, ГФЛ00057628, ГФЛ00057672, ГФЛ00057778</t>
+  </si>
+  <si>
+    <t>Лента(РЦ М и МО)_М.О., г.о. Подольск, д. Валищево, промышленного парка Валищево тер., стр.12</t>
+  </si>
+  <si>
+    <t>М.О., г.о. Подольск, д. Валищево, промышленного парка Валищево тер., стр.12</t>
+  </si>
+  <si>
+    <t>ГФЛ00057832</t>
+  </si>
+  <si>
+    <t>87_40823</t>
+  </si>
+  <si>
+    <t>А388ЕК977</t>
+  </si>
+  <si>
+    <t>Васильев Сергей Юрьевич</t>
+  </si>
+  <si>
+    <t>УМНЫЙ РИТЕЙЛ (Мск + Ярославль)_Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
+  </si>
+  <si>
+    <t>Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
+  </si>
+  <si>
+    <t>ОФЛ00028421, ОФЛ00028422, ГФЛ00057732, ГФЛ00057733</t>
+  </si>
+  <si>
+    <t>88_40823</t>
+  </si>
+  <si>
+    <t>А458ЕК977</t>
+  </si>
+  <si>
+    <t>Ларченков Евгений Викторович</t>
+  </si>
+  <si>
+    <t>Яндекс.Лавка_г. Москва, ул. Рябиновая д. 45, с5</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Рябиновая д. 45, с5</t>
+  </si>
+  <si>
+    <t>ОФЛ00028419, ГФЛ00057488</t>
+  </si>
+  <si>
+    <t>Яндекс.Лавка ГОТОВАЯ ЕДА _121471, Москва, Рябиновая, 45 cтр. 5</t>
+  </si>
+  <si>
+    <t>121471, Москва, Рябиновая, 45 cтр. 5</t>
+  </si>
+  <si>
+    <t>ГФЛ00057519</t>
+  </si>
+  <si>
+    <t>90_40823</t>
+  </si>
+  <si>
+    <t>ГРИНФИЛДС АГРО ООО_Московская область, Наро-Фоминский район, ЗАО «Таширово» -Теплицы</t>
+  </si>
+  <si>
+    <t>Московская область, Наро-Фоминский район, ЗАО «Таширово» -Теплицы</t>
+  </si>
+  <si>
+    <t>ГФЛ00007433</t>
+  </si>
+  <si>
+    <t>93_40823</t>
+  </si>
+  <si>
+    <t>Р755УР799</t>
+  </si>
+  <si>
+    <t>Слипенский Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>ИП (Фуд Сити Дмитрий)_22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
+  </si>
+  <si>
+    <t>22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
+  </si>
+  <si>
+    <t>ОФЛ00028414, ОФЛ00028435, ОФЛ00028415, ОФЛ00028439</t>
+  </si>
+  <si>
+    <t>ИП (МИРЗА)_г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
+  </si>
+  <si>
+    <t>г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
+  </si>
+  <si>
+    <t>ОФЛ00028418</t>
+  </si>
+  <si>
+    <t>97_40823</t>
+  </si>
+  <si>
+    <t>В004НМ67</t>
+  </si>
+  <si>
+    <t>Головкин Сергей Валерьевич</t>
+  </si>
+  <si>
+    <t>УМНЫЙ РИТЕЙЛ (Технический)_г Москва, поселение Московский, г Московский, ул Солнечная, д 2 стр 25</t>
+  </si>
+  <si>
+    <t>г Москва, поселение Московский, г Московский, ул Солнечная, д 2 стр 25</t>
+  </si>
+  <si>
+    <t>ОФЛ00027748, ОФЛ00028115, ОФЛ00028146, ОФЛ00028201, ОФЛ00028182, ОФЛ00028164, ОФЛ00028089, ОФЛ00028245, ОФЛ00027889, ОФЛ00028301</t>
+  </si>
+  <si>
+    <t>УМНЫЙ РИТЕЙЛ (Технический)_Московская обл, г Подольск, деревня Валищево, км 9-й автомобильной дороги А-107 ММК, д 7А стр 5</t>
+  </si>
+  <si>
+    <t>Московская обл, г Подольск, деревня Валищево, км 9-й автомобильной дороги А-107 ММК, д 7А стр 5</t>
+  </si>
+  <si>
+    <t>ОФЛ00027786, ОФЛ00028281, ОФЛ00028187, ОФЛ00028351, ОФЛ00028244, ОФЛ00027747, ОФЛ00028083, ОФЛ00028181</t>
+  </si>
+  <si>
+    <t>98_40823</t>
+  </si>
+  <si>
+    <t>Р274СО790</t>
+  </si>
+  <si>
+    <t>Дигай Владимир Андреевич</t>
+  </si>
+  <si>
+    <t>УМНЫЙ РИТЕЙЛ (Технический)_Московская обл, г Пушкино, Ярославское шоссе, д 222 РЦ Самокат</t>
+  </si>
+  <si>
+    <t>Московская обл, г Пушкино, Ярославское шоссе, д 222 РЦ Самокат</t>
+  </si>
+  <si>
+    <t>ОФЛ00028179, ОФЛ00027886, ОФЛ00027749, ОФЛ00028090, ОФЛ00028190, ОФЛ00028114, ОФЛ00027976, ОФЛ00028350, ОФЛ00028166, ОФЛ00028238</t>
+  </si>
+  <si>
+    <t>101_40823</t>
   </si>
   <si>
     <t>В312АН977</t>
   </si>
   <si>
-    <t>Блохин Валентин Витальевич</t>
-  </si>
-  <si>
-    <t>ДВ Невада_М.О., Домодедовский р-он, д Жеребятьево, тер Колычевское -Жеребятьево стр 2.</t>
-  </si>
-  <si>
-    <t>М.О., Домодедовский р-он, д Жеребятьево, тер Колычевское -Жеребятьево стр 2.</t>
-  </si>
-  <si>
-    <t>ТАУБЕР И К_М.О., г.Домодедово, п. ГПЗ Константиново, Объездное шоссе строение 2.</t>
-  </si>
-  <si>
-    <t>М.О., г.Домодедово, п. ГПЗ Константиново, Объездное шоссе строение 2.</t>
-  </si>
-  <si>
-    <t>АО Вкусвилл_М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
-  </si>
-  <si>
-    <t>М.О.,г. Домодедово,д.Кучино,строение 50 (Склад Домодедово)</t>
-  </si>
-  <si>
-    <t>Лента(РЦ М и МО)_М.О., Чеховский р-н, д. Лешино</t>
-  </si>
-  <si>
-    <t>М.О., Чеховский р-н, д. Лешино</t>
-  </si>
-  <si>
-    <t>57_40789</t>
-  </si>
-  <si>
-    <t>Р658УР799</t>
-  </si>
-  <si>
-    <t>Рощупкин Евгений Александрович</t>
-  </si>
-  <si>
-    <t>АЗБУКА ВКУСА (РЦ МСК)_М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
-  </si>
-  <si>
-    <t>М.О., Истринский р-н, с/пос. Лучинское, дер. Давыдовское, ул. Дачная, корп. 6 (АВ ДЕЛИ)</t>
-  </si>
-  <si>
-    <t>59_40789</t>
-  </si>
-  <si>
-    <t>Е379СА799</t>
-  </si>
-  <si>
-    <t>Чернышев Денис Игорьевич</t>
-  </si>
-  <si>
-    <t>Вкусная Пекарня_г. Москва , Волоколамское ш., д.89</t>
-  </si>
-  <si>
-    <t>г. Москва , Волоколамское ш., д.89</t>
-  </si>
-  <si>
-    <t>Мираторг РЦ_М.О., Солнечногорский р-н, с.п. Пешковское , в р-не д. Шелепаново РЦ</t>
-  </si>
-  <si>
-    <t>М.О., Солнечногорский р-н, с.п. Пешковское , в р-не д. Шелепаново РЦ</t>
-  </si>
-  <si>
-    <t>Магнит (В1- Первый выбор)_141825 Дмитровский р-он, г. Дмитров, 4-й км. Автодор. Дмитров-Орудьево-Жуковка тер., вл. 57 .с18</t>
-  </si>
-  <si>
-    <t>141825 Дмитровский р-он, г. Дмитров, 4-й км. Автодор. Дмитров-Орудьево-Жуковка тер., вл. 57 .с18</t>
-  </si>
-  <si>
-    <t>68_40789</t>
-  </si>
-  <si>
-    <t>А458ЕК977</t>
-  </si>
-  <si>
-    <t>Даркин Александр Анатольевич</t>
-  </si>
-  <si>
-    <t>Метро-Метро Кэш энд Керри РЦ_М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
-  </si>
-  <si>
-    <t>М.О., Ногинский р-н, территория "Ногинск-Технопарк", 8.</t>
-  </si>
-  <si>
-    <t>71_40789</t>
-  </si>
-  <si>
-    <t>Р722УР799</t>
-  </si>
-  <si>
-    <t>Юсупов Марат Исхакович</t>
-  </si>
-  <si>
-    <t>Х5 (РЦ)_М.О., Раменский р-н, с.Софьино</t>
-  </si>
-  <si>
-    <t>М.О., Раменский р-н, с.Софьино</t>
-  </si>
-  <si>
-    <t>72_40789</t>
-  </si>
-  <si>
-    <t>Р871УР799</t>
-  </si>
-  <si>
-    <t>Пашаев Абдулла Зубайругаджиевич</t>
-  </si>
-  <si>
-    <t>73_40789</t>
-  </si>
-  <si>
-    <t>ДА-ЛОГИСТИКА ООО</t>
-  </si>
-  <si>
-    <t>Е463АК550</t>
-  </si>
-  <si>
-    <t>Гладких Никита Сергеевич</t>
-  </si>
-  <si>
-    <t>76_40789</t>
-  </si>
-  <si>
-    <t>А388ЕК977</t>
-  </si>
-  <si>
-    <t>Ситников Максим Владимирович</t>
-  </si>
-  <si>
-    <t>Национальная фруктовая компания (МСК)_М.О.,Подольский район, с. Сынково, д. 77</t>
-  </si>
-  <si>
-    <t>М.О.,Подольский район, с. Сынково, д. 77</t>
-  </si>
-  <si>
-    <t>Лента(РЦ М и МО)_М.О., г.о. Подольск, д. Валищево, промышленного парка Валищево тер., стр.12</t>
-  </si>
-  <si>
-    <t>М.О., г.о. Подольск, д. Валищево, промышленного парка Валищево тер., стр.12</t>
-  </si>
-  <si>
-    <t>87_40789</t>
-  </si>
-  <si>
-    <t>В182АН977</t>
-  </si>
-  <si>
-    <t>Ефремов Алексей Вячеславович</t>
-  </si>
-  <si>
-    <t>УМНЫЙ РИТЕЙЛ (Мск + Ярославль)_Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
-  </si>
-  <si>
-    <t>Московская область, Пушкинский район, городское поселение Софрино, 48 км. Ярославского шоссе, владение 1, корпус 1</t>
-  </si>
-  <si>
-    <t>Твой дом(Мытищинский филиал)_М.О., г. Мытищи, Осташковское шоссе, д.2</t>
-  </si>
-  <si>
-    <t>М.О., г. Мытищи, Осташковское шоссе, д.2</t>
-  </si>
-  <si>
-    <t>88_40789</t>
-  </si>
-  <si>
-    <t>Р874УР799</t>
-  </si>
-  <si>
-    <t>Казанцев Эдуард Владиславович</t>
-  </si>
-  <si>
-    <t>Яндекс.Лавка ГОТОВАЯ ЕДА _121471, Москва, Рябиновая, 45 cтр. 5</t>
-  </si>
-  <si>
-    <t>121471, Москва, Рябиновая, 45 cтр. 5</t>
-  </si>
-  <si>
-    <t>Яндекс.Лавка_г. Москва, ул. Рябиновая д. 45, с5</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д. 45, с5</t>
-  </si>
-  <si>
-    <t>Интернет решения_г. Москва, ул. Рябиновая д. 51, стр. 2</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Рябиновая д. 51, стр. 2</t>
-  </si>
-  <si>
-    <t>92_40789</t>
-  </si>
-  <si>
-    <t>Р755УР799</t>
-  </si>
-  <si>
-    <t>Слипенский Александр Анатольевич</t>
-  </si>
-  <si>
-    <t>ИП (МИРЗА)_г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
-  </si>
-  <si>
-    <t>г.Москва, 22-й км Калужское ш., Сосенское пос., ФудСити, склад 22 / Мирза 8968-588-28-50</t>
-  </si>
-  <si>
-    <t>93_40789</t>
-  </si>
-  <si>
-    <t>Р911УР799</t>
-  </si>
-  <si>
     <t>Малышев Михаил Александрович</t>
   </si>
   <si>
-    <t>ИП (Фуд Сити Дмитрий)_22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
-  </si>
-  <si>
-    <t>22-й км Калужское ш., Сосенское пос., ФудСити, Основное здание, место 70103 / Дмитрий 8916-602-26-06</t>
-  </si>
-  <si>
-    <t>94_40789</t>
-  </si>
-  <si>
-    <t>Р783УР799</t>
-  </si>
-  <si>
-    <t>Бехов Дмитрий Петрович</t>
+    <t>ТТМ-Центр (Новый)_г. Видное, д. Горки, Каширское ш., вл28.</t>
+  </si>
+  <si>
+    <t>г. Видное, д. Горки, Каширское ш., вл28.</t>
+  </si>
+  <si>
+    <t>ГФЛ00057745</t>
   </si>
 </sst>
 </file>
@@ -893,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -925,9 +1165,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" s="3">
-        <v>740</v>
-      </c>
+      <c r="J1" s="3"/>
       <c r="K1" s="3">
         <v>4</v>
       </c>
@@ -939,10 +1177,10 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.229166666664</v>
       </c>
       <c r="T1" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.25</v>
       </c>
       <c r="U1" t="s">
         <v>4</v>
@@ -956,8 +1194,12 @@
       <c r="X1" s="3">
         <v>0</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="Y1" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>37.193683999999998</v>
+      </c>
       <c r="AA1" t="s">
         <v>3</v>
       </c>
@@ -986,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1005,9 +1247,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3">
-        <v>740</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <v>4</v>
       </c>
@@ -1019,10 +1259,10 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T2" s="2">
-        <v>45558.708333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="U2" t="s">
         <v>9</v>
@@ -1031,19 +1271,19 @@
         <v>10</v>
       </c>
       <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>55.724282000000002</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>37.673456999999999</v>
+      </c>
+      <c r="AA2" t="s">
         <v>11</v>
-      </c>
-      <c r="X2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>55.711204000000002</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>37.678800000000003</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -1070,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1089,9 +1329,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>740</v>
-      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3">
         <v>4</v>
       </c>
@@ -1103,10 +1341,10 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T3" s="2">
-        <v>45558.708333333336</v>
+        <v>45575.708333333336</v>
       </c>
       <c r="U3" t="s">
         <v>12</v>
@@ -1115,19 +1353,19 @@
         <v>13</v>
       </c>
       <c r="W3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X3" s="3">
         <v>2</v>
       </c>
       <c r="Y3" s="4">
-        <v>55.693925999999998</v>
+        <v>55.711204000000002</v>
       </c>
       <c r="Z3" s="4">
-        <v>37.723078999999998</v>
+        <v>37.678800000000003</v>
       </c>
       <c r="AA3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AB3" t="s">
         <v>3</v>
@@ -1154,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1173,9 +1411,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>740</v>
-      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="3">
         <v>4</v>
       </c>
@@ -1187,31 +1423,31 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="2">
-        <v>45558.375</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T4" s="2">
-        <v>45558.458333333336</v>
+        <v>45575.708333333336</v>
       </c>
       <c r="U4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X4" s="3">
         <v>3</v>
       </c>
       <c r="Y4" s="4">
-        <v>55.725315999999999</v>
+        <v>55.693925999999998</v>
       </c>
       <c r="Z4" s="4">
-        <v>37.710036000000002</v>
+        <v>37.723078999999998</v>
       </c>
       <c r="AA4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="s">
         <v>3</v>
@@ -1238,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1257,9 +1493,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>740</v>
-      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="3">
         <v>4</v>
       </c>
@@ -1271,31 +1505,31 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.208333333336</v>
       </c>
       <c r="T5" s="2">
-        <v>45558.5</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="U5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X5" s="3">
         <v>4</v>
       </c>
       <c r="Y5" s="4">
-        <v>55.728541</v>
+        <v>55.700679000000001</v>
       </c>
       <c r="Z5" s="4">
-        <v>37.689407000000003</v>
+        <v>37.726322000000003</v>
       </c>
       <c r="AA5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s">
         <v>3</v>
@@ -1322,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1341,9 +1575,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>740</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3">
         <v>4</v>
       </c>
@@ -1355,31 +1587,31 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.916666666664</v>
       </c>
       <c r="T6" s="2">
-        <v>45558.708333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="U6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="W6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X6" s="3">
         <v>5</v>
       </c>
       <c r="Y6" s="4">
-        <v>55.772162999999999</v>
+        <v>55.659840000000003</v>
       </c>
       <c r="Z6" s="4">
-        <v>37.678325000000001</v>
+        <v>37.863199000000002</v>
       </c>
       <c r="AA6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="s">
         <v>3</v>
@@ -1406,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1425,9 +1657,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>740</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3">
         <v>4</v>
       </c>
@@ -1439,19 +1669,19 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T7" s="2">
-        <v>45558.75</v>
+        <v>45575.75</v>
       </c>
       <c r="U7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X7" s="3">
         <v>6</v>
@@ -1463,7 +1693,7 @@
         <v>37.729008</v>
       </c>
       <c r="AA7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="s">
         <v>3</v>
@@ -1490,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1509,9 +1739,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <v>740</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="3">
         <v>4</v>
       </c>
@@ -1523,19 +1751,19 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T8" s="2">
-        <v>45558.583333333336</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="U8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="W8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X8" s="3">
         <v>7</v>
@@ -1547,7 +1775,7 @@
         <v>37.721701000000003</v>
       </c>
       <c r="AA8" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="s">
         <v>3</v>
@@ -1574,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1593,9 +1821,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>740</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3">
         <v>4</v>
       </c>
@@ -1607,31 +1833,31 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T9" s="2">
-        <v>45558.708333333336</v>
+        <v>45575.708333333336</v>
       </c>
       <c r="U9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X9" s="3">
         <v>8</v>
       </c>
       <c r="Y9" s="4">
-        <v>55.729975000000003</v>
+        <v>55.772162999999999</v>
       </c>
       <c r="Z9" s="4">
-        <v>37.747388000000001</v>
+        <v>37.678325000000001</v>
       </c>
       <c r="AA9" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="s">
         <v>3</v>
@@ -1658,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1677,9 +1903,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3">
-        <v>740</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3">
         <v>4</v>
       </c>
@@ -1691,28 +1915,28 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="2">
-        <v>45558.270833333336</v>
+        <v>45575.75</v>
       </c>
       <c r="T10" s="2">
-        <v>45558.625</v>
+        <v>45575.875</v>
       </c>
       <c r="U10" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X10" s="3">
         <v>9</v>
       </c>
       <c r="Y10" s="4">
-        <v>55.706856000000002</v>
+        <v>55.574375000000003</v>
       </c>
       <c r="Z10" s="4">
-        <v>37.594687</v>
+        <v>37.193683999999998</v>
       </c>
       <c r="AA10" t="s">
         <v>3</v>
@@ -1739,10 +1963,10 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1775,10 +1999,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.229166666664</v>
       </c>
       <c r="T11" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.25</v>
       </c>
       <c r="U11" t="s">
         <v>4</v>
@@ -1787,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X11" s="3">
         <v>0</v>
@@ -1801,13 +2025,13 @@
         <v>3</v>
       </c>
       <c r="AC11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD11" t="s">
         <v>3</v>
       </c>
       <c r="AE11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" t="s">
@@ -1819,10 +2043,10 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1855,43 +2079,43 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="2">
-        <v>45558.375</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T12" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.520833333336</v>
       </c>
       <c r="U12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X12" s="3">
         <v>1</v>
       </c>
       <c r="Y12" s="4">
-        <v>55.674909999999997</v>
+        <v>55.975667000000001</v>
       </c>
       <c r="Z12" s="4">
-        <v>37.308970000000002</v>
+        <v>37.490819999999999</v>
       </c>
       <c r="AA12" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s">
         <v>3</v>
       </c>
       <c r="AC12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD12" t="s">
         <v>3</v>
       </c>
       <c r="AE12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF12" s="3"/>
       <c r="AG12" t="s">
@@ -1903,10 +2127,10 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1939,43 +2163,41 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="2">
-        <v>45558.375</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T13" s="2">
-        <v>45558.5</v>
+        <v>45575.375</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X13" s="3">
         <v>2</v>
       </c>
       <c r="Y13" s="4">
-        <v>55.692006999999997</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>37.419944000000001</v>
-      </c>
+        <v>55.458598000000002</v>
+      </c>
+      <c r="Z13" s="4"/>
       <c r="AA13" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="s">
         <v>3</v>
       </c>
       <c r="AC13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD13" t="s">
         <v>3</v>
       </c>
       <c r="AE13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" t="s">
@@ -1987,10 +2209,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -2023,43 +2245,43 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="2">
-        <v>45558.375</v>
+        <v>45575.395833333336</v>
       </c>
       <c r="T14" s="2">
-        <v>45558.625</v>
+        <v>45575.458333333336</v>
       </c>
       <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>55.829067000000002</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>37.410556</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="s">
         <v>35</v>
       </c>
-      <c r="V14" t="s">
+      <c r="AD14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="s">
         <v>36</v>
-      </c>
-      <c r="W14" t="s">
-        <v>11</v>
-      </c>
-      <c r="X14" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>55.658999999999999</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>37.377288</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>30</v>
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" t="s">
@@ -2071,10 +2293,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2107,43 +2329,43 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="T15" s="2">
-        <v>45558.5</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="U15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X15" s="3">
         <v>4</v>
       </c>
       <c r="Y15" s="4">
-        <v>55.673310999999998</v>
+        <v>55.875264000000001</v>
       </c>
       <c r="Z15" s="4">
-        <v>37.432124000000002</v>
+        <v>37.448633999999998</v>
       </c>
       <c r="AA15" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="s">
         <v>3</v>
       </c>
       <c r="AC15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD15" t="s">
         <v>3</v>
       </c>
       <c r="AE15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" t="s">
@@ -2155,10 +2377,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2191,43 +2413,43 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="2">
-        <v>45558.375</v>
+        <v>45575.208333333336</v>
       </c>
       <c r="T16" s="2">
-        <v>45558.583333333336</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="V16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X16" s="3">
         <v>5</v>
       </c>
       <c r="Y16" s="4">
-        <v>55.68327</v>
+        <v>55.915992000000003</v>
       </c>
       <c r="Z16" s="4">
-        <v>37.438619000000003</v>
+        <v>37.540084</v>
       </c>
       <c r="AA16" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="AB16" t="s">
         <v>3</v>
       </c>
       <c r="AC16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD16" t="s">
         <v>3</v>
       </c>
       <c r="AE16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" t="s">
@@ -2239,10 +2461,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2275,43 +2497,43 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T17" s="2">
-        <v>45558.75</v>
+        <v>45575.75</v>
       </c>
       <c r="U17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="V17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="W17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X17" s="3">
         <v>6</v>
       </c>
       <c r="Y17" s="4">
-        <v>55.692957</v>
+        <v>55.881749999999997</v>
       </c>
       <c r="Z17" s="4">
-        <v>37.427129999999998</v>
+        <v>37.601197999999997</v>
       </c>
       <c r="AA17" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="AB17" t="s">
         <v>3</v>
       </c>
       <c r="AC17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD17" t="s">
         <v>3</v>
       </c>
       <c r="AE17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" t="s">
@@ -2323,10 +2545,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -2359,43 +2581,43 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T18" s="2">
-        <v>45558.75</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="U18" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X18" s="3">
         <v>7</v>
       </c>
       <c r="Y18" s="4">
-        <v>55.658256000000002</v>
+        <v>55.844040999999997</v>
       </c>
       <c r="Z18" s="4">
-        <v>37.429958999999997</v>
+        <v>37.662649999999999</v>
       </c>
       <c r="AA18" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="AB18" t="s">
         <v>3</v>
       </c>
       <c r="AC18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD18" t="s">
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" t="s">
@@ -2407,10 +2629,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -2443,43 +2665,43 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="2">
-        <v>45558.375</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T19" s="2">
-        <v>45558.6875</v>
+        <v>45575.708333333336</v>
       </c>
       <c r="U19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X19" s="3">
         <v>8</v>
       </c>
       <c r="Y19" s="4">
-        <v>55.647782999999997</v>
+        <v>55.865022000000003</v>
       </c>
       <c r="Z19" s="4">
-        <v>37.481153999999997</v>
+        <v>37.705665000000003</v>
       </c>
       <c r="AA19" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="s">
         <v>3</v>
       </c>
       <c r="AC19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AD19" t="s">
         <v>3</v>
       </c>
       <c r="AE19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" t="s">
@@ -2491,10 +2713,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2527,10 +2749,10 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.75</v>
       </c>
       <c r="T20" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.875</v>
       </c>
       <c r="U20" t="s">
         <v>4</v>
@@ -2542,10 +2764,14 @@
         <v>6</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>37.193683999999998</v>
+      </c>
       <c r="AA20" t="s">
         <v>3</v>
       </c>
@@ -2553,13 +2779,13 @@
         <v>3</v>
       </c>
       <c r="AC20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AD20" t="s">
         <v>3</v>
       </c>
       <c r="AE20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" t="s">
@@ -2571,10 +2797,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -2607,29 +2833,25 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.229166666664</v>
       </c>
       <c r="T21" s="2">
-        <v>45558.75</v>
+        <v>45575.25</v>
       </c>
       <c r="U21" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="V21" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>55.522933999999999</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>37.518104000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
       <c r="AA21" t="s">
         <v>3</v>
       </c>
@@ -2637,13 +2859,13 @@
         <v>3</v>
       </c>
       <c r="AC21" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AD21" t="s">
         <v>3</v>
       </c>
       <c r="AE21" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" t="s">
@@ -2655,10 +2877,10 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2691,43 +2913,43 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="2">
-        <v>45558.270833333336</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T22" s="2">
-        <v>45558.583333333336</v>
+        <v>45575.541666666664</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="V22" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="W22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="4">
-        <v>55.766212000000003</v>
+        <v>55.672063999999999</v>
       </c>
       <c r="Z22" s="4">
-        <v>37.380875000000003</v>
+        <v>37.305636999999997</v>
       </c>
       <c r="AA22" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="AB22" t="s">
         <v>3</v>
       </c>
       <c r="AC22" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AD22" t="s">
         <v>3</v>
       </c>
       <c r="AE22" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" t="s">
@@ -2739,10 +2961,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2775,43 +2997,43 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T23" s="2">
-        <v>45558.541666666664</v>
+        <v>45575.541666666664</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="W23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="4">
-        <v>55.592485000000003</v>
+        <v>55.629846000000001</v>
       </c>
       <c r="Z23" s="4">
-        <v>37.630907999999998</v>
+        <v>37.308416000000001</v>
       </c>
       <c r="AA23" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="AB23" t="s">
         <v>3</v>
       </c>
       <c r="AC23" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AD23" t="s">
         <v>3</v>
       </c>
       <c r="AE23" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" t="s">
@@ -2823,10 +3045,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -2859,43 +3081,43 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T24" s="2">
-        <v>45558.375</v>
+        <v>45575.375</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="W24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y24" s="4">
-        <v>55.731718000000001</v>
+        <v>56.011755999999998</v>
       </c>
       <c r="Z24" s="4">
-        <v>37.487361999999997</v>
+        <v>41.117542999999998</v>
       </c>
       <c r="AA24" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s">
         <v>3</v>
       </c>
       <c r="AC24" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AD24" t="s">
         <v>3</v>
       </c>
       <c r="AE24" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" t="s">
@@ -2907,10 +3129,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2943,43 +3165,43 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="T25" s="2">
-        <v>45558.833333333336</v>
+        <v>45575.6875</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y25" s="4">
-        <v>55.688825000000001</v>
+        <v>55.647782999999997</v>
       </c>
       <c r="Z25" s="4">
-        <v>37.601838000000001</v>
+        <v>37.481153999999997</v>
       </c>
       <c r="AA25" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s">
         <v>3</v>
       </c>
       <c r="AC25" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AD25" t="s">
         <v>3</v>
       </c>
       <c r="AE25" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" t="s">
@@ -2991,10 +3213,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -3027,43 +3249,43 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="2">
-        <v>45558.3125</v>
+        <v>45575.375</v>
       </c>
       <c r="T26" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.625</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y26" s="4">
-        <v>55.797331</v>
+        <v>55.658999999999999</v>
       </c>
       <c r="Z26" s="4">
-        <v>37.578584999999997</v>
+        <v>37.377288</v>
       </c>
       <c r="AA26" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s">
         <v>3</v>
       </c>
       <c r="AC26" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AD26" t="s">
         <v>3</v>
       </c>
       <c r="AE26" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" t="s">
@@ -3075,10 +3297,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -3111,43 +3333,43 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="T27" s="2">
-        <v>45558.708333333336</v>
+        <v>45575.5</v>
       </c>
       <c r="U27" t="s">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s">
+        <v>80</v>
+      </c>
+      <c r="W27" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>55.685853000000002</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>37.431809999999999</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" t="s">
         <v>62</v>
       </c>
-      <c r="V27" t="s">
+      <c r="AD27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="s">
         <v>63</v>
-      </c>
-      <c r="W27" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" s="3">
-        <v>7</v>
-      </c>
-      <c r="Y27" s="4">
-        <v>55.776637999999998</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>37.470686000000001</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>49</v>
       </c>
       <c r="AF27" s="3"/>
       <c r="AG27" t="s">
@@ -3159,10 +3381,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -3195,43 +3417,43 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="2">
-        <v>45558.4375</v>
+        <v>45575.375</v>
       </c>
       <c r="T28" s="2">
-        <v>45558.458333333336</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="U28" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="W28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X28" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y28" s="4">
-        <v>55.754274000000002</v>
+        <v>55.68327</v>
       </c>
       <c r="Z28" s="4">
-        <v>37.603999000000002</v>
+        <v>37.438619000000003</v>
       </c>
       <c r="AA28" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="AB28" t="s">
         <v>3</v>
       </c>
       <c r="AC28" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AD28" t="s">
         <v>3</v>
       </c>
       <c r="AE28" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" t="s">
@@ -3243,10 +3465,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -3279,39 +3501,43 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T29" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.75</v>
       </c>
       <c r="U29" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="V29" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="W29" t="s">
         <v>6</v>
       </c>
       <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>55.692957</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>37.427129999999998</v>
+      </c>
       <c r="AA29" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="AB29" t="s">
         <v>3</v>
       </c>
       <c r="AC29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AD29" t="s">
         <v>3</v>
       </c>
       <c r="AE29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AF29" s="3"/>
       <c r="AG29" t="s">
@@ -3323,10 +3549,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -3359,43 +3585,43 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="T30" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="U30" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="V30" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="W30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X30" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Y30" s="4">
-        <v>55.575676000000001</v>
+        <v>55.683315</v>
       </c>
       <c r="Z30" s="4">
-        <v>37.173540000000003</v>
+        <v>37.425736999999998</v>
       </c>
       <c r="AA30" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="AB30" t="s">
         <v>3</v>
       </c>
       <c r="AC30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AD30" t="s">
         <v>3</v>
       </c>
       <c r="AE30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" t="s">
@@ -3407,10 +3633,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -3443,43 +3669,43 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T31" s="2">
-        <v>45558.5</v>
+        <v>45575.75</v>
       </c>
       <c r="U31" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="V31" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="W31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X31" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Y31" s="4">
-        <v>55.605862999999999</v>
+        <v>55.658256000000002</v>
       </c>
       <c r="Z31" s="4">
-        <v>37.453448999999999</v>
+        <v>37.429958999999997</v>
       </c>
       <c r="AA31" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="AB31" t="s">
         <v>3</v>
       </c>
       <c r="AC31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AD31" t="s">
         <v>3</v>
       </c>
       <c r="AE31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" t="s">
@@ -3491,10 +3717,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -3527,28 +3753,28 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="2">
-        <v>45558.5</v>
+        <v>45575.75</v>
       </c>
       <c r="T32" s="2">
-        <v>45558.625</v>
+        <v>45575.875</v>
       </c>
       <c r="U32" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="V32" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="W32" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="3">
         <v>11</v>
       </c>
-      <c r="X32" s="3">
-        <v>3</v>
-      </c>
       <c r="Y32" s="4">
-        <v>55.617654999999999</v>
+        <v>55.574375000000003</v>
       </c>
       <c r="Z32" s="4">
-        <v>37.428660000000001</v>
+        <v>37.193683999999998</v>
       </c>
       <c r="AA32" t="s">
         <v>3</v>
@@ -3557,13 +3783,13 @@
         <v>3</v>
       </c>
       <c r="AC32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AD32" t="s">
         <v>3</v>
       </c>
       <c r="AE32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AF32" s="3"/>
       <c r="AG32" t="s">
@@ -3575,10 +3801,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -3611,10 +3837,10 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.229166666664</v>
       </c>
       <c r="T33" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.25</v>
       </c>
       <c r="U33" t="s">
         <v>4</v>
@@ -3623,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="W33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
@@ -3637,13 +3863,13 @@
         <v>3</v>
       </c>
       <c r="AC33" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AD33" t="s">
         <v>3</v>
       </c>
       <c r="AE33" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF33" s="3"/>
       <c r="AG33" t="s">
@@ -3655,10 +3881,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -3691,43 +3917,43 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T34" s="2">
-        <v>45558.75</v>
+        <v>45575.75</v>
       </c>
       <c r="U34" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="V34" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="W34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X34" s="3">
         <v>1</v>
       </c>
       <c r="Y34" s="4">
-        <v>55.881749999999997</v>
+        <v>55.522933999999999</v>
       </c>
       <c r="Z34" s="4">
-        <v>37.601197999999997</v>
+        <v>37.518104000000001</v>
       </c>
       <c r="AA34" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AB34" t="s">
         <v>3</v>
       </c>
       <c r="AC34" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AD34" t="s">
         <v>3</v>
       </c>
       <c r="AE34" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF34" s="3"/>
       <c r="AG34" t="s">
@@ -3739,10 +3965,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -3775,43 +4001,43 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T35" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="U35" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="V35" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="W35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X35" s="3">
         <v>2</v>
       </c>
       <c r="Y35" s="4">
-        <v>56.024169999999998</v>
+        <v>55.630721000000001</v>
       </c>
       <c r="Z35" s="4">
-        <v>37.894297999999999</v>
+        <v>37.624929999999999</v>
       </c>
       <c r="AA35" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="AB35" t="s">
         <v>3</v>
       </c>
       <c r="AC35" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AD35" t="s">
         <v>3</v>
       </c>
       <c r="AE35" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF35" s="3"/>
       <c r="AG35" t="s">
@@ -3823,10 +4049,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -3859,43 +4085,43 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T36" s="2">
-        <v>45558.708333333336</v>
+        <v>45575.833333333336</v>
       </c>
       <c r="U36" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="V36" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="W36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X36" s="3">
         <v>3</v>
       </c>
       <c r="Y36" s="4">
-        <v>55.865022000000003</v>
+        <v>55.688825000000001</v>
       </c>
       <c r="Z36" s="4">
-        <v>37.705665000000003</v>
+        <v>37.601838000000001</v>
       </c>
       <c r="AA36" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="AB36" t="s">
         <v>3</v>
       </c>
       <c r="AC36" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AD36" t="s">
         <v>3</v>
       </c>
       <c r="AE36" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF36" s="3"/>
       <c r="AG36" t="s">
@@ -3907,10 +4133,10 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -3943,43 +4169,43 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="2">
-        <v>45558.583333333336</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T37" s="2">
-        <v>45558.625</v>
+        <v>45575.458333333336</v>
       </c>
       <c r="U37" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="V37" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="W37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X37" s="3">
         <v>4</v>
       </c>
       <c r="Y37" s="4">
-        <v>55.891435999999999</v>
+        <v>55.733902999999998</v>
       </c>
       <c r="Z37" s="4">
-        <v>37.753698</v>
+        <v>37.537964000000002</v>
       </c>
       <c r="AA37" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="AB37" t="s">
         <v>3</v>
       </c>
       <c r="AC37" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AD37" t="s">
         <v>3</v>
       </c>
       <c r="AE37" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF37" s="3"/>
       <c r="AG37" t="s">
@@ -3991,10 +4217,10 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -4014,10 +4240,10 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K38" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -4027,39 +4253,43 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="T38" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.625</v>
       </c>
       <c r="U38" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="V38" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="W38" t="s">
         <v>6</v>
       </c>
       <c r="X38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>55.776001000000001</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>37.505947999999997</v>
+      </c>
       <c r="AA38" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="AB38" t="s">
         <v>3</v>
       </c>
       <c r="AC38" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AD38" t="s">
         <v>3</v>
       </c>
       <c r="AE38" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" t="s">
@@ -4071,10 +4301,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -4094,10 +4324,10 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K39" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4107,43 +4337,43 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="2">
-        <v>45558.375</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T39" s="2">
-        <v>45558.458333333336</v>
+        <v>45575.708333333336</v>
       </c>
       <c r="U39" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="V39" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="W39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X39" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y39" s="4">
-        <v>55.917971999999999</v>
+        <v>55.776637999999998</v>
       </c>
       <c r="Z39" s="4">
-        <v>37.576962999999999</v>
+        <v>37.470686000000001</v>
       </c>
       <c r="AA39" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="AB39" t="s">
         <v>3</v>
       </c>
       <c r="AC39" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AD39" t="s">
         <v>3</v>
       </c>
       <c r="AE39" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" t="s">
@@ -4155,10 +4385,10 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -4178,10 +4408,10 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K40" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -4191,28 +4421,28 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="2">
-        <v>45558.5</v>
+        <v>45575.833333333336</v>
       </c>
       <c r="T40" s="2">
-        <v>45558.625</v>
+        <v>45575.958333333336</v>
       </c>
       <c r="U40" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="V40" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="W40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X40" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y40" s="4">
-        <v>55.918767000000003</v>
+        <v>55.574375000000003</v>
       </c>
       <c r="Z40" s="4">
-        <v>37.571649999999998</v>
+        <v>37.193683999999998</v>
       </c>
       <c r="AA40" t="s">
         <v>3</v>
@@ -4221,13 +4451,13 @@
         <v>3</v>
       </c>
       <c r="AC40" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AD40" t="s">
         <v>3</v>
       </c>
       <c r="AE40" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AF40" s="3"/>
       <c r="AG40" t="s">
@@ -4239,10 +4469,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -4262,10 +4492,10 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K41" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -4275,10 +4505,10 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.208333333336</v>
       </c>
       <c r="T41" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.229166666664</v>
       </c>
       <c r="U41" t="s">
         <v>4</v>
@@ -4287,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="W41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -4301,13 +4531,13 @@
         <v>3</v>
       </c>
       <c r="AC41" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AD41" t="s">
         <v>3</v>
       </c>
       <c r="AE41" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AF41" s="3"/>
       <c r="AG41" t="s">
@@ -4319,10 +4549,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -4342,10 +4572,10 @@
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K42" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -4355,43 +4585,43 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.25</v>
       </c>
       <c r="T42" s="2">
-        <v>45558.375</v>
+        <v>45575.25</v>
       </c>
       <c r="U42" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="V42" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="W42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X42" s="3">
         <v>1</v>
       </c>
       <c r="Y42" s="4">
-        <v>55.463819000000001</v>
+        <v>55.678159000000001</v>
       </c>
       <c r="Z42" s="4">
-        <v>37.839734999999997</v>
+        <v>37.408479999999997</v>
       </c>
       <c r="AA42" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="AB42" t="s">
         <v>3</v>
       </c>
       <c r="AC42" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AD42" t="s">
         <v>3</v>
       </c>
       <c r="AE42" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" t="s">
@@ -4403,10 +4633,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -4426,10 +4656,10 @@
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K43" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -4439,28 +4669,28 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.25</v>
       </c>
       <c r="T43" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.375</v>
       </c>
       <c r="U43" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="V43" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="W43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X43" s="3">
         <v>2</v>
       </c>
       <c r="Y43" s="4">
-        <v>55.428714999999997</v>
+        <v>55.574375000000003</v>
       </c>
       <c r="Z43" s="4">
-        <v>37.707735999999997</v>
+        <v>37.193683999999998</v>
       </c>
       <c r="AA43" t="s">
         <v>3</v>
@@ -4469,13 +4699,13 @@
         <v>3</v>
       </c>
       <c r="AC43" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AD43" t="s">
         <v>3</v>
       </c>
       <c r="AE43" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" t="s">
@@ -4487,10 +4717,10 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -4510,10 +4740,10 @@
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K44" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -4523,29 +4753,25 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="2">
-        <v>45558.375</v>
+        <v>45575.166666666664</v>
       </c>
       <c r="T44" s="2">
-        <v>45558.458333333336</v>
+        <v>45575.1875</v>
       </c>
       <c r="U44" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="V44" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="W44" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X44" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y44" s="4">
-        <v>55.428939</v>
-      </c>
-      <c r="Z44" s="4">
-        <v>37.652233000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
       <c r="AA44" t="s">
         <v>3</v>
       </c>
@@ -4553,13 +4779,13 @@
         <v>3</v>
       </c>
       <c r="AC44" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="AD44" t="s">
         <v>3</v>
       </c>
       <c r="AE44" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="AF44" s="3"/>
       <c r="AG44" t="s">
@@ -4571,10 +4797,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B45" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -4594,10 +4820,10 @@
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K45" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -4607,43 +4833,43 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.229166666664</v>
       </c>
       <c r="T45" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.25</v>
       </c>
       <c r="U45" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="V45" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="W45" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X45" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="4">
-        <v>55.146830000000001</v>
+        <v>55.577025999999996</v>
       </c>
       <c r="Z45" s="4">
-        <v>37.575268999999999</v>
+        <v>37.171889</v>
       </c>
       <c r="AA45" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="AB45" t="s">
         <v>3</v>
       </c>
       <c r="AC45" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="AD45" t="s">
         <v>3</v>
       </c>
       <c r="AE45" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="AF45" s="3"/>
       <c r="AG45" t="s">
@@ -4655,10 +4881,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B46" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -4678,10 +4904,10 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3">
-        <v>3330</v>
+        <v>1480</v>
       </c>
       <c r="K46" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -4691,39 +4917,43 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T46" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.5</v>
       </c>
       <c r="U46" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="V46" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="W46" t="s">
         <v>6</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>55.605862999999999</v>
+      </c>
+      <c r="Z46" s="4">
+        <v>37.453448999999999</v>
+      </c>
       <c r="AA46" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="AB46" t="s">
         <v>3</v>
       </c>
       <c r="AC46" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="AD46" t="s">
         <v>3</v>
       </c>
       <c r="AE46" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AF46" s="3"/>
       <c r="AG46" t="s">
@@ -4735,10 +4965,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -4758,10 +4988,10 @@
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
-        <v>3330</v>
+        <v>1480</v>
       </c>
       <c r="K47" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -4771,43 +5001,43 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.5</v>
       </c>
       <c r="T47" s="2">
-        <v>45558.375</v>
+        <v>45575.625</v>
       </c>
       <c r="U47" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="V47" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="W47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X47" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y47" s="4">
-        <v>55.854982999999997</v>
+        <v>55.617654999999999</v>
       </c>
       <c r="Z47" s="4">
-        <v>36.790616</v>
+        <v>37.428660000000001</v>
       </c>
       <c r="AA47" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="AB47" t="s">
         <v>3</v>
       </c>
       <c r="AC47" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="AD47" t="s">
         <v>3</v>
       </c>
       <c r="AE47" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AF47" s="3"/>
       <c r="AG47" t="s">
@@ -4819,10 +5049,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -4855,10 +5085,10 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.625</v>
       </c>
       <c r="T48" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.75</v>
       </c>
       <c r="U48" t="s">
         <v>4</v>
@@ -4870,10 +5100,14 @@
         <v>6</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>37.193683999999998</v>
+      </c>
       <c r="AA48" t="s">
         <v>3</v>
       </c>
@@ -4881,13 +5115,13 @@
         <v>3</v>
       </c>
       <c r="AC48" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AD48" t="s">
         <v>3</v>
       </c>
       <c r="AE48" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AF48" s="3"/>
       <c r="AG48" t="s">
@@ -4899,10 +5133,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B49" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -4922,10 +5156,10 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3">
-        <v>1480</v>
+        <v>3330</v>
       </c>
       <c r="K49" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4935,29 +5169,25 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="2">
-        <v>45558.375</v>
+        <v>45575.25</v>
       </c>
       <c r="T49" s="2">
-        <v>45558.458333333336</v>
+        <v>45575.270833333336</v>
       </c>
       <c r="U49" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="V49" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="W49" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X49" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="4">
-        <v>55.829067000000002</v>
-      </c>
-      <c r="Z49" s="4">
-        <v>37.410556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
       <c r="AA49" t="s">
         <v>3</v>
       </c>
@@ -4965,13 +5195,13 @@
         <v>3</v>
       </c>
       <c r="AC49" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="AD49" t="s">
         <v>3</v>
       </c>
       <c r="AE49" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AF49" s="3"/>
       <c r="AG49" t="s">
@@ -4983,10 +5213,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B50" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -5006,10 +5236,10 @@
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3">
-        <v>1480</v>
+        <v>3330</v>
       </c>
       <c r="K50" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -5019,43 +5249,43 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="2">
-        <v>45558.375</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="T50" s="2">
-        <v>45558.625</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="U50" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="V50" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="W50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="4">
-        <v>56.115402000000003</v>
+        <v>56.024169999999998</v>
       </c>
       <c r="Z50" s="4">
-        <v>37.180309000000001</v>
+        <v>37.894297999999999</v>
       </c>
       <c r="AA50" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="AB50" t="s">
         <v>3</v>
       </c>
       <c r="AC50" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="AD50" t="s">
         <v>3</v>
       </c>
       <c r="AE50" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AF50" s="3"/>
       <c r="AG50" t="s">
@@ -5067,10 +5297,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B51" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -5090,10 +5320,10 @@
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
-        <v>1480</v>
+        <v>3330</v>
       </c>
       <c r="K51" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -5103,28 +5333,28 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="2">
-        <v>45558.583333333336</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="T51" s="2">
-        <v>45558.625</v>
+        <v>45575.541666666664</v>
       </c>
       <c r="U51" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="V51" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="W51" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y51" s="4">
-        <v>56.408890999999997</v>
+        <v>55.574375000000003</v>
       </c>
       <c r="Z51" s="4">
-        <v>37.521856999999997</v>
+        <v>37.193683999999998</v>
       </c>
       <c r="AA51" t="s">
         <v>3</v>
@@ -5133,13 +5363,13 @@
         <v>3</v>
       </c>
       <c r="AC51" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="AD51" t="s">
         <v>3</v>
       </c>
       <c r="AE51" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AF51" s="3"/>
       <c r="AG51" t="s">
@@ -5151,10 +5381,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -5174,10 +5404,10 @@
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3">
-        <v>2775</v>
+        <v>3330</v>
       </c>
       <c r="K52" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -5187,10 +5417,10 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.25</v>
       </c>
       <c r="T52" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.270833333336</v>
       </c>
       <c r="U52" t="s">
         <v>4</v>
@@ -5199,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="W52" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -5213,13 +5443,13 @@
         <v>3</v>
       </c>
       <c r="AC52" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="AD52" t="s">
         <v>3</v>
       </c>
       <c r="AE52" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AF52" s="3"/>
       <c r="AG52" t="s">
@@ -5231,10 +5461,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B53" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -5254,10 +5484,10 @@
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3">
-        <v>2775</v>
+        <v>3330</v>
       </c>
       <c r="K53" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -5267,43 +5497,43 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="2">
-        <v>45558.291666666664</v>
+        <v>45575.375</v>
       </c>
       <c r="T53" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.458333333336</v>
       </c>
       <c r="U53" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="V53" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="W53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X53" s="3">
         <v>1</v>
       </c>
       <c r="Y53" s="4">
-        <v>55.826894000000003</v>
+        <v>55.917971999999999</v>
       </c>
       <c r="Z53" s="4">
-        <v>38.389432999999997</v>
+        <v>37.576962999999999</v>
       </c>
       <c r="AA53" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="AB53" t="s">
         <v>3</v>
       </c>
       <c r="AC53" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="AD53" t="s">
         <v>3</v>
       </c>
       <c r="AE53" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
@@ -5315,10 +5545,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B54" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -5338,10 +5568,10 @@
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3">
-        <v>1480</v>
+        <v>3330</v>
       </c>
       <c r="K54" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -5351,39 +5581,43 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.5</v>
       </c>
       <c r="T54" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.625</v>
       </c>
       <c r="U54" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="V54" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="W54" t="s">
         <v>6</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>55.918767000000003</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>37.571649999999998</v>
+      </c>
       <c r="AA54" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="AB54" t="s">
         <v>3</v>
       </c>
       <c r="AC54" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AD54" t="s">
         <v>3</v>
       </c>
       <c r="AE54" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AF54" s="3"/>
       <c r="AG54" t="s">
@@ -5395,10 +5629,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B55" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -5418,10 +5652,10 @@
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3">
-        <v>1480</v>
+        <v>3330</v>
       </c>
       <c r="K55" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -5431,43 +5665,43 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="T55" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.625</v>
       </c>
       <c r="U55" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="V55" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="W55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X55" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y55" s="4">
-        <v>55.492686999999997</v>
+        <v>56.408890999999997</v>
       </c>
       <c r="Z55" s="4">
-        <v>38.156230000000001</v>
+        <v>37.521856999999997</v>
       </c>
       <c r="AA55" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="AB55" t="s">
         <v>3</v>
       </c>
       <c r="AC55" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="AD55" t="s">
         <v>3</v>
       </c>
       <c r="AE55" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AF55" s="3"/>
       <c r="AG55" t="s">
@@ -5479,10 +5713,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -5515,10 +5749,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.625</v>
       </c>
       <c r="T56" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.75</v>
       </c>
       <c r="U56" t="s">
         <v>4</v>
@@ -5530,10 +5764,14 @@
         <v>6</v>
       </c>
       <c r="X56" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>37.193683999999998</v>
+      </c>
       <c r="AA56" t="s">
         <v>3</v>
       </c>
@@ -5541,13 +5779,13 @@
         <v>3</v>
       </c>
       <c r="AC56" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AD56" t="s">
         <v>3</v>
       </c>
       <c r="AE56" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF56" s="3"/>
       <c r="AG56" t="s">
@@ -5559,10 +5797,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -5582,10 +5820,10 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3">
-        <v>3330</v>
+        <v>1480</v>
       </c>
       <c r="K57" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -5595,29 +5833,25 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.25</v>
       </c>
       <c r="T57" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.270833333336</v>
       </c>
       <c r="U57" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="V57" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="W57" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X57" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="4">
-        <v>55.492686999999997</v>
-      </c>
-      <c r="Z57" s="4">
-        <v>38.156230000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
       <c r="AA57" t="s">
         <v>3</v>
       </c>
@@ -5625,13 +5859,13 @@
         <v>3</v>
       </c>
       <c r="AC57" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AD57" t="s">
         <v>3</v>
       </c>
       <c r="AE57" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="AF57" s="3"/>
       <c r="AG57" t="s">
@@ -5643,16 +5877,16 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B58" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" t="s">
@@ -5666,10 +5900,10 @@
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
-        <v>6105</v>
+        <v>1480</v>
       </c>
       <c r="K58" s="3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -5679,39 +5913,43 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="T58" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.458333333336</v>
       </c>
       <c r="U58" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="V58" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="W58" t="s">
         <v>6</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>55.428939</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>37.652233000000003</v>
+      </c>
       <c r="AA58" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="AB58" t="s">
         <v>3</v>
       </c>
       <c r="AC58" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="AD58" t="s">
         <v>3</v>
       </c>
       <c r="AE58" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="AF58" s="3"/>
       <c r="AG58" t="s">
@@ -5723,16 +5961,16 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B59" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" t="s">
@@ -5746,10 +5984,10 @@
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3">
-        <v>6105</v>
+        <v>1480</v>
       </c>
       <c r="K59" s="3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -5759,28 +5997,28 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.458333333336</v>
       </c>
       <c r="T59" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.583333333336</v>
       </c>
       <c r="U59" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="V59" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="W59" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y59" s="4">
-        <v>55.492686999999997</v>
+        <v>55.574375000000003</v>
       </c>
       <c r="Z59" s="4">
-        <v>38.156230000000001</v>
+        <v>37.193683999999998</v>
       </c>
       <c r="AA59" t="s">
         <v>3</v>
@@ -5789,13 +6027,13 @@
         <v>3</v>
       </c>
       <c r="AC59" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="AD59" t="s">
         <v>3</v>
       </c>
       <c r="AE59" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="AF59" s="3"/>
       <c r="AG59" t="s">
@@ -5807,10 +6045,10 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B60" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -5830,10 +6068,10 @@
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3">
-        <v>2775</v>
+        <v>3330</v>
       </c>
       <c r="K60" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -5843,10 +6081,10 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.25</v>
       </c>
       <c r="T60" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.270833333336</v>
       </c>
       <c r="U60" t="s">
         <v>4</v>
@@ -5855,7 +6093,7 @@
         <v>5</v>
       </c>
       <c r="W60" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
@@ -5869,13 +6107,13 @@
         <v>3</v>
       </c>
       <c r="AC60" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AD60" t="s">
         <v>3</v>
       </c>
       <c r="AE60" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="AF60" s="3"/>
       <c r="AG60" t="s">
@@ -5887,10 +6125,10 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B61" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -5910,10 +6148,10 @@
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3">
-        <v>2775</v>
+        <v>3330</v>
       </c>
       <c r="K61" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -5923,43 +6161,43 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T61" s="2">
-        <v>45558.5</v>
+        <v>45575.375</v>
       </c>
       <c r="U61" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="V61" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="W61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X61" s="3">
         <v>1</v>
       </c>
       <c r="Y61" s="4">
-        <v>55.355105999999999</v>
+        <v>55.854982999999997</v>
       </c>
       <c r="Z61" s="4">
-        <v>37.626564000000002</v>
+        <v>36.790616</v>
       </c>
       <c r="AA61" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="AB61" t="s">
         <v>3</v>
       </c>
       <c r="AC61" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AD61" t="s">
         <v>3</v>
       </c>
       <c r="AE61" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="AF61" s="3"/>
       <c r="AG61" t="s">
@@ -5971,10 +6209,10 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B62" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -5994,10 +6232,10 @@
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3">
-        <v>2775</v>
+        <v>3330</v>
       </c>
       <c r="K62" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -6007,28 +6245,28 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="T62" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.5</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="V62" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="W62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X62" s="3">
         <v>2</v>
       </c>
       <c r="Y62" s="4">
-        <v>55.333497999999999</v>
+        <v>55.574375000000003</v>
       </c>
       <c r="Z62" s="4">
-        <v>37.673726000000002</v>
+        <v>37.193683999999998</v>
       </c>
       <c r="AA62" t="s">
         <v>3</v>
@@ -6037,13 +6275,13 @@
         <v>3</v>
       </c>
       <c r="AC62" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AD62" t="s">
         <v>3</v>
       </c>
       <c r="AE62" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="AF62" s="3"/>
       <c r="AG62" t="s">
@@ -6055,10 +6293,10 @@
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -6078,10 +6316,10 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K63" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -6091,10 +6329,10 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.25</v>
       </c>
       <c r="T63" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.270833333336</v>
       </c>
       <c r="U63" t="s">
         <v>4</v>
@@ -6103,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="W63" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X63" s="3">
         <v>0</v>
@@ -6117,13 +6355,13 @@
         <v>3</v>
       </c>
       <c r="AC63" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AD63" t="s">
         <v>3</v>
       </c>
       <c r="AE63" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AF63" s="3"/>
       <c r="AG63" t="s">
@@ -6135,10 +6373,10 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B64" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -6158,10 +6396,10 @@
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K64" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -6171,43 +6409,43 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="T64" s="2">
-        <v>45558.375</v>
+        <v>45575.416666666664</v>
       </c>
       <c r="U64" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="V64" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="W64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X64" s="3">
         <v>1</v>
       </c>
       <c r="Y64" s="4">
-        <v>55.472161999999997</v>
+        <v>55.791187000000001</v>
       </c>
       <c r="Z64" s="4">
-        <v>37.753266000000004</v>
+        <v>37.388717999999997</v>
       </c>
       <c r="AA64" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="AB64" t="s">
         <v>3</v>
       </c>
       <c r="AC64" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AD64" t="s">
         <v>3</v>
       </c>
       <c r="AE64" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AF64" s="3"/>
       <c r="AG64" t="s">
@@ -6219,10 +6457,10 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B65" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -6242,10 +6480,10 @@
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3">
-        <v>2775</v>
+        <v>1480</v>
       </c>
       <c r="K65" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -6255,43 +6493,43 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="2">
-        <v>45558.333333333336</v>
+        <v>45575.375</v>
       </c>
       <c r="T65" s="2">
-        <v>45558.583333333336</v>
+        <v>45575.625</v>
       </c>
       <c r="U65" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="V65" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="W65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X65" s="3">
         <v>2</v>
       </c>
       <c r="Y65" s="4">
-        <v>55.898915000000002</v>
+        <v>56.115402000000003</v>
       </c>
       <c r="Z65" s="4">
-        <v>37.674866000000002</v>
+        <v>37.180309000000001</v>
       </c>
       <c r="AA65" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="AB65" t="s">
         <v>3</v>
       </c>
       <c r="AC65" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AD65" t="s">
         <v>3</v>
       </c>
       <c r="AE65" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AF65" s="3"/>
       <c r="AG65" t="s">
@@ -6303,10 +6541,10 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B66" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -6326,10 +6564,10 @@
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3">
-        <v>3330</v>
+        <v>1480</v>
       </c>
       <c r="K66" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -6339,10 +6577,10 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.625</v>
       </c>
       <c r="T66" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.75</v>
       </c>
       <c r="U66" t="s">
         <v>4</v>
@@ -6354,10 +6592,14 @@
         <v>6</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z66" s="4">
+        <v>37.193683999999998</v>
+      </c>
       <c r="AA66" t="s">
         <v>3</v>
       </c>
@@ -6365,13 +6607,13 @@
         <v>3</v>
       </c>
       <c r="AC66" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="AD66" t="s">
         <v>3</v>
       </c>
       <c r="AE66" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AF66" s="3"/>
       <c r="AG66" t="s">
@@ -6383,10 +6625,10 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -6419,29 +6661,25 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="2">
-        <v>45558.458333333336</v>
+        <v>45575.083333333336</v>
       </c>
       <c r="T67" s="2">
-        <v>45558.5</v>
+        <v>45575.104166666664</v>
       </c>
       <c r="U67" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="V67" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="W67" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X67" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y67" s="4">
-        <v>55.696655999999997</v>
-      </c>
-      <c r="Z67" s="4">
-        <v>37.424219000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
       <c r="AA67" t="s">
         <v>3</v>
       </c>
@@ -6449,13 +6687,13 @@
         <v>3</v>
       </c>
       <c r="AC67" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AD67" t="s">
         <v>3</v>
       </c>
       <c r="AE67" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AF67" s="3"/>
       <c r="AG67" t="s">
@@ -6467,10 +6705,10 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B68" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -6503,43 +6741,43 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="2">
-        <v>45558.458333333336</v>
+        <v>45575.958333333336</v>
       </c>
       <c r="T68" s="2">
-        <v>45558.5</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="U68" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="V68" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="W68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y68" s="4">
-        <v>56.130994000000001</v>
+        <v>55.811284999999998</v>
       </c>
       <c r="Z68" s="4">
-        <v>38.306068000000003</v>
+        <v>37.837443999999998</v>
       </c>
       <c r="AA68" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="AB68" t="s">
         <v>3</v>
       </c>
       <c r="AC68" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AD68" t="s">
         <v>3</v>
       </c>
       <c r="AE68" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AF68" s="3"/>
       <c r="AG68" t="s">
@@ -6551,10 +6789,10 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B69" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -6587,43 +6825,43 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="2">
-        <v>45558.645833333336</v>
+        <v>45575.291666666664</v>
       </c>
       <c r="T69" s="2">
-        <v>45558.6875</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="U69" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="V69" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="W69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X69" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y69" s="4">
-        <v>55.755819000000002</v>
+        <v>55.826894000000003</v>
       </c>
       <c r="Z69" s="4">
-        <v>37.617643999999999</v>
+        <v>38.389432999999997</v>
       </c>
       <c r="AA69" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="AB69" t="s">
         <v>3</v>
       </c>
       <c r="AC69" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="AD69" t="s">
         <v>3</v>
       </c>
       <c r="AE69" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AF69" s="3"/>
       <c r="AG69" t="s">
@@ -6635,10 +6873,10 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B70" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -6658,10 +6896,10 @@
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
-        <v>1480</v>
+        <v>3330</v>
       </c>
       <c r="K70" s="3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -6671,10 +6909,10 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T70" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.458333333336</v>
       </c>
       <c r="U70" t="s">
         <v>4</v>
@@ -6686,10 +6924,14 @@
         <v>6</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="Y70" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z70" s="4">
+        <v>37.193683999999998</v>
+      </c>
       <c r="AA70" t="s">
         <v>3</v>
       </c>
@@ -6697,13 +6939,13 @@
         <v>3</v>
       </c>
       <c r="AC70" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AD70" t="s">
         <v>3</v>
       </c>
       <c r="AE70" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AF70" s="3"/>
       <c r="AG70" t="s">
@@ -6715,16 +6957,16 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B71" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" t="s">
@@ -6738,10 +6980,10 @@
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3">
-        <v>1480</v>
+        <v>6105</v>
       </c>
       <c r="K71" s="3">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -6751,29 +6993,25 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="2">
-        <v>45558.166666666664</v>
+        <v>45575.166666666664</v>
       </c>
       <c r="T71" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.1875</v>
       </c>
       <c r="U71" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="V71" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="W71" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X71" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="4">
-        <v>55.599966000000002</v>
-      </c>
-      <c r="Z71" s="4">
-        <v>37.472966999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
       <c r="AA71" t="s">
         <v>3</v>
       </c>
@@ -6781,13 +7019,13 @@
         <v>3</v>
       </c>
       <c r="AC71" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="AD71" t="s">
         <v>3</v>
       </c>
       <c r="AE71" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="AF71" s="3"/>
       <c r="AG71" t="s">
@@ -6799,16 +7037,16 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B72" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" t="s">
@@ -6822,10 +7060,10 @@
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3">
-        <v>3330</v>
+        <v>6105</v>
       </c>
       <c r="K72" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -6835,39 +7073,43 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T72" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="U72" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="V72" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="W72" t="s">
         <v>6</v>
       </c>
       <c r="X72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>55.492686999999997</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>38.156230000000001</v>
+      </c>
       <c r="AA72" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="AB72" t="s">
         <v>3</v>
       </c>
       <c r="AC72" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="AD72" t="s">
         <v>3</v>
       </c>
       <c r="AE72" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AF72" s="3"/>
       <c r="AG72" t="s">
@@ -6879,10 +7121,10 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B73" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -6915,29 +7157,25 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="2">
-        <v>45558.166666666664</v>
+        <v>45575.25</v>
       </c>
       <c r="T73" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.270833333336</v>
       </c>
       <c r="U73" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="V73" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="W73" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X73" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="4">
-        <v>55.598261999999998</v>
-      </c>
-      <c r="Z73" s="4">
-        <v>37.473897999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
       <c r="AA73" t="s">
         <v>3</v>
       </c>
@@ -6945,13 +7183,13 @@
         <v>3</v>
       </c>
       <c r="AC73" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="AD73" t="s">
         <v>3</v>
       </c>
       <c r="AE73" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="AF73" s="3"/>
       <c r="AG73" t="s">
@@ -6963,10 +7201,10 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B74" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -6999,43 +7237,43 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="2">
-        <v>45558.166666666664</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T74" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="U74" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="V74" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="W74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="4">
-        <v>55.599966000000002</v>
+        <v>55.146830000000001</v>
       </c>
       <c r="Z74" s="4">
-        <v>37.472966999999997</v>
+        <v>37.575268999999999</v>
       </c>
       <c r="AA74" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="AB74" t="s">
         <v>3</v>
       </c>
       <c r="AC74" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="AD74" t="s">
         <v>3</v>
       </c>
       <c r="AE74" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="AF74" s="3"/>
       <c r="AG74" t="s">
@@ -7047,10 +7285,10 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B75" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -7083,10 +7321,10 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T75" s="2">
-        <v>45558.416666666664</v>
+        <v>45575.458333333336</v>
       </c>
       <c r="U75" t="s">
         <v>4</v>
@@ -7098,10 +7336,14 @@
         <v>6</v>
       </c>
       <c r="X75" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>37.193683999999998</v>
+      </c>
       <c r="AA75" t="s">
         <v>3</v>
       </c>
@@ -7109,13 +7351,13 @@
         <v>3</v>
       </c>
       <c r="AC75" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="AD75" t="s">
         <v>3</v>
       </c>
       <c r="AE75" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="AF75" s="3"/>
       <c r="AG75" t="s">
@@ -7127,10 +7369,10 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B76" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -7150,10 +7392,10 @@
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K76" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -7163,29 +7405,25 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="2">
-        <v>45558.166666666664</v>
+        <v>45575.25</v>
       </c>
       <c r="T76" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.270833333336</v>
       </c>
       <c r="U76" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="V76" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="W76" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X76" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="4">
-        <v>55.599966000000002</v>
-      </c>
-      <c r="Z76" s="4">
-        <v>37.472966999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
       <c r="AA76" t="s">
         <v>3</v>
       </c>
@@ -7193,13 +7431,13 @@
         <v>3</v>
       </c>
       <c r="AC76" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AD76" t="s">
         <v>3</v>
       </c>
       <c r="AE76" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF76" s="3"/>
       <c r="AG76" t="s">
@@ -7211,10 +7449,10 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B77" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -7234,10 +7472,10 @@
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3">
-        <v>3330</v>
+        <v>2775</v>
       </c>
       <c r="K77" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -7247,49 +7485,2185 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="2">
-        <v>45558.166666666664</v>
+        <v>45575.333333333336</v>
       </c>
       <c r="T77" s="2">
-        <v>45558.208333333336</v>
+        <v>45575.5</v>
       </c>
       <c r="U77" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="V77" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="W77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X77" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="4">
-        <v>55.598261999999998</v>
+        <v>55.355105999999999</v>
       </c>
       <c r="Z77" s="4">
-        <v>37.473897999999998</v>
+        <v>37.626564000000002</v>
       </c>
       <c r="AA77" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="AB77" t="s">
         <v>3</v>
       </c>
       <c r="AC77" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AD77" t="s">
         <v>3</v>
       </c>
       <c r="AE77" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF77" s="3"/>
       <c r="AG77" t="s">
         <v>3</v>
       </c>
       <c r="AH77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K78" s="3">
+        <v>15</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="2">
+        <v>45575.333333333336</v>
+      </c>
+      <c r="T78" s="2">
+        <v>45575.333333333336</v>
+      </c>
+      <c r="U78" t="s">
+        <v>199</v>
+      </c>
+      <c r="V78" t="s">
+        <v>200</v>
+      </c>
+      <c r="W78" t="s">
+        <v>6</v>
+      </c>
+      <c r="X78" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>55.333497999999999</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>37.673726000000002</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF78" s="3"/>
+      <c r="AG78" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K79" s="3">
+        <v>15</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="2">
+        <v>45575.5</v>
+      </c>
+      <c r="T79" s="2">
+        <v>45575.625</v>
+      </c>
+      <c r="U79" t="s">
+        <v>4</v>
+      </c>
+      <c r="V79" t="s">
+        <v>5</v>
+      </c>
+      <c r="W79" t="s">
+        <v>6</v>
+      </c>
+      <c r="X79" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y79" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF79" s="3"/>
+      <c r="AG79" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K80" s="3">
+        <v>15</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="2">
+        <v>45575.25</v>
+      </c>
+      <c r="T80" s="2">
+        <v>45575.270833333336</v>
+      </c>
+      <c r="U80" t="s">
+        <v>4</v>
+      </c>
+      <c r="V80" t="s">
+        <v>5</v>
+      </c>
+      <c r="W80" t="s">
+        <v>34</v>
+      </c>
+      <c r="X80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF80" s="3"/>
+      <c r="AG80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K81" s="3">
+        <v>15</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="2">
+        <v>45575.333333333336</v>
+      </c>
+      <c r="T81" s="2">
+        <v>45575.375</v>
+      </c>
+      <c r="U81" t="s">
+        <v>205</v>
+      </c>
+      <c r="V81" t="s">
+        <v>206</v>
+      </c>
+      <c r="W81" t="s">
+        <v>6</v>
+      </c>
+      <c r="X81" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>55.472161999999997</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>37.753266000000004</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF81" s="3"/>
+      <c r="AG81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K82" s="3">
+        <v>15</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="2">
+        <v>45575.375</v>
+      </c>
+      <c r="T82" s="2">
+        <v>45575.5</v>
+      </c>
+      <c r="U82" t="s">
+        <v>4</v>
+      </c>
+      <c r="V82" t="s">
+        <v>5</v>
+      </c>
+      <c r="W82" t="s">
+        <v>6</v>
+      </c>
+      <c r="X82" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y82" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF82" s="3"/>
+      <c r="AG82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K83" s="3">
+        <v>15</v>
+      </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="2">
+        <v>45575.375</v>
+      </c>
+      <c r="T83" s="2">
+        <v>45575.395833333336</v>
+      </c>
+      <c r="U83" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" t="s">
+        <v>34</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF83" s="3"/>
+      <c r="AG83" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K84" s="3">
+        <v>15</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="2">
+        <v>45575.458333333336</v>
+      </c>
+      <c r="T84" s="2">
+        <v>45575.5</v>
+      </c>
+      <c r="U84" t="s">
+        <v>211</v>
+      </c>
+      <c r="V84" t="s">
+        <v>212</v>
+      </c>
+      <c r="W84" t="s">
+        <v>6</v>
+      </c>
+      <c r="X84" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>56.130994000000001</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>38.306068000000003</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF84" s="3"/>
+      <c r="AG84" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K85" s="3">
+        <v>15</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="2">
+        <v>45575.458333333336</v>
+      </c>
+      <c r="T85" s="2">
+        <v>45575.5</v>
+      </c>
+      <c r="U85" t="s">
+        <v>214</v>
+      </c>
+      <c r="V85" t="s">
+        <v>215</v>
+      </c>
+      <c r="W85" t="s">
+        <v>6</v>
+      </c>
+      <c r="X85" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>55.696655999999997</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>37.424219000000001</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF85" s="3"/>
+      <c r="AG85" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K86" s="3">
+        <v>15</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="2">
+        <v>45575.5</v>
+      </c>
+      <c r="T86" s="2">
+        <v>45575.625</v>
+      </c>
+      <c r="U86" t="s">
+        <v>4</v>
+      </c>
+      <c r="V86" t="s">
+        <v>5</v>
+      </c>
+      <c r="W86" t="s">
+        <v>6</v>
+      </c>
+      <c r="X86" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y86" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF86" s="3"/>
+      <c r="AG86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="2">
+        <v>45575.375</v>
+      </c>
+      <c r="T87" s="2">
+        <v>45575.395833333336</v>
+      </c>
+      <c r="U87" t="s">
+        <v>4</v>
+      </c>
+      <c r="V87" t="s">
+        <v>5</v>
+      </c>
+      <c r="W87" t="s">
+        <v>34</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF87" s="3"/>
+      <c r="AG87" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" t="s">
+        <v>218</v>
+      </c>
+      <c r="V88" t="s">
+        <v>219</v>
+      </c>
+      <c r="W88" t="s">
+        <v>6</v>
+      </c>
+      <c r="X88" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="4">
+        <v>53.293489999999998</v>
+      </c>
+      <c r="Z88" s="4">
+        <v>50.298299</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF88" s="3"/>
+      <c r="AG88" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" t="s">
+        <v>6</v>
+      </c>
+      <c r="X89" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z89" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF89" s="3"/>
+      <c r="AG89" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
+        <v>1480</v>
+      </c>
+      <c r="K90" s="3">
+        <v>8</v>
+      </c>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="2">
+        <v>45575.041666666664</v>
+      </c>
+      <c r="T90" s="2">
+        <v>45575.0625</v>
+      </c>
+      <c r="U90" t="s">
+        <v>4</v>
+      </c>
+      <c r="V90" t="s">
+        <v>5</v>
+      </c>
+      <c r="W90" t="s">
+        <v>34</v>
+      </c>
+      <c r="X90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF90" s="3"/>
+      <c r="AG90" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
+        <v>1480</v>
+      </c>
+      <c r="K91" s="3">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="2">
+        <v>45575.166666666664</v>
+      </c>
+      <c r="T91" s="2">
+        <v>45575.208333333336</v>
+      </c>
+      <c r="U91" t="s">
+        <v>224</v>
+      </c>
+      <c r="V91" t="s">
+        <v>225</v>
+      </c>
+      <c r="W91" t="s">
+        <v>6</v>
+      </c>
+      <c r="X91" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>55.598261999999998</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>37.473897999999998</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF91" s="3"/>
+      <c r="AG91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
+        <v>1480</v>
+      </c>
+      <c r="K92" s="3">
+        <v>8</v>
+      </c>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="2">
+        <v>45575.166666666664</v>
+      </c>
+      <c r="T92" s="2">
+        <v>45575.208333333336</v>
+      </c>
+      <c r="U92" t="s">
+        <v>227</v>
+      </c>
+      <c r="V92" t="s">
+        <v>228</v>
+      </c>
+      <c r="W92" t="s">
+        <v>6</v>
+      </c>
+      <c r="X92" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y92" s="4">
+        <v>55.599966000000002</v>
+      </c>
+      <c r="Z92" s="4">
+        <v>37.472966999999997</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF92" s="3"/>
+      <c r="AG92" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <v>1480</v>
+      </c>
+      <c r="K93" s="3">
+        <v>8</v>
+      </c>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="2">
+        <v>45575.208333333336</v>
+      </c>
+      <c r="T93" s="2">
+        <v>45575.333333333336</v>
+      </c>
+      <c r="U93" t="s">
+        <v>4</v>
+      </c>
+      <c r="V93" t="s">
+        <v>5</v>
+      </c>
+      <c r="W93" t="s">
+        <v>6</v>
+      </c>
+      <c r="X93" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF93" s="3"/>
+      <c r="AG93" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>230</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
+        <v>6105</v>
+      </c>
+      <c r="K94" s="3">
+        <v>33</v>
+      </c>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="2">
+        <v>45210</v>
+      </c>
+      <c r="T94" s="2">
+        <v>45575</v>
+      </c>
+      <c r="U94" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" t="s">
+        <v>34</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF94" s="3"/>
+      <c r="AG94" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" t="s">
+        <v>3</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
+        <v>6105</v>
+      </c>
+      <c r="K95" s="3">
+        <v>33</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="2">
+        <v>45575.333333333336</v>
+      </c>
+      <c r="T95" s="2">
+        <v>45575.583333333336</v>
+      </c>
+      <c r="U95" t="s">
+        <v>233</v>
+      </c>
+      <c r="V95" t="s">
+        <v>234</v>
+      </c>
+      <c r="W95" t="s">
+        <v>6</v>
+      </c>
+      <c r="X95" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>55.587722999999997</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>37.369717999999999</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF95" s="3"/>
+      <c r="AG95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
+        <v>6105</v>
+      </c>
+      <c r="K96" s="3">
+        <v>33</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="2">
+        <v>45575.333333333336</v>
+      </c>
+      <c r="T96" s="2">
+        <v>45575.666666666664</v>
+      </c>
+      <c r="U96" t="s">
+        <v>236</v>
+      </c>
+      <c r="V96" t="s">
+        <v>237</v>
+      </c>
+      <c r="W96" t="s">
+        <v>6</v>
+      </c>
+      <c r="X96" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>55.337204999999997</v>
+      </c>
+      <c r="Z96" s="4">
+        <v>37.668835000000001</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF96" s="3"/>
+      <c r="AG96" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>230</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
+        <v>6105</v>
+      </c>
+      <c r="K97" s="3">
+        <v>33</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="2">
+        <v>45575.666666666664</v>
+      </c>
+      <c r="T97" s="2">
+        <v>45575.791666666664</v>
+      </c>
+      <c r="U97" t="s">
+        <v>4</v>
+      </c>
+      <c r="V97" t="s">
+        <v>5</v>
+      </c>
+      <c r="W97" t="s">
+        <v>6</v>
+      </c>
+      <c r="X97" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF97" s="3"/>
+      <c r="AG97" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
+        <v>1850</v>
+      </c>
+      <c r="K98" s="3">
+        <v>10</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="2">
+        <v>45210</v>
+      </c>
+      <c r="T98" s="2">
+        <v>45575</v>
+      </c>
+      <c r="U98" t="s">
+        <v>4</v>
+      </c>
+      <c r="V98" t="s">
+        <v>5</v>
+      </c>
+      <c r="W98" t="s">
+        <v>34</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF98" s="3"/>
+      <c r="AG98" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
+        <v>1850</v>
+      </c>
+      <c r="K99" s="3">
+        <v>10</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="2">
+        <v>45575.333333333336</v>
+      </c>
+      <c r="T99" s="2">
+        <v>45575.666666666664</v>
+      </c>
+      <c r="U99" t="s">
+        <v>242</v>
+      </c>
+      <c r="V99" t="s">
+        <v>243</v>
+      </c>
+      <c r="W99" t="s">
+        <v>6</v>
+      </c>
+      <c r="X99" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>56.040128000000003</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>37.877293000000002</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF99" s="3"/>
+      <c r="AG99" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3">
+        <v>1850</v>
+      </c>
+      <c r="K100" s="3">
+        <v>10</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="2">
+        <v>45575.666666666664</v>
+      </c>
+      <c r="T100" s="2">
+        <v>45575.791666666664</v>
+      </c>
+      <c r="U100" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" t="s">
+        <v>6</v>
+      </c>
+      <c r="X100" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF100" s="3"/>
+      <c r="AG100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" t="s">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K101" s="3">
+        <v>15</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="2">
+        <v>45210</v>
+      </c>
+      <c r="T101" s="2">
+        <v>45575</v>
+      </c>
+      <c r="U101" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" t="s">
+        <v>34</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF101" s="3"/>
+      <c r="AG101" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K102" s="3">
+        <v>15</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="2">
+        <v>45575.376388888886</v>
+      </c>
+      <c r="T102" s="2">
+        <v>45575.378472222219</v>
+      </c>
+      <c r="U102" t="s">
+        <v>248</v>
+      </c>
+      <c r="V102" t="s">
+        <v>249</v>
+      </c>
+      <c r="W102" t="s">
+        <v>6</v>
+      </c>
+      <c r="X102" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>55.51538</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>37.757269000000001</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF102" s="3"/>
+      <c r="AG102" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
+        <v>2775</v>
+      </c>
+      <c r="K103" s="3">
+        <v>15</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="2">
+        <v>45575.378472222219</v>
+      </c>
+      <c r="T103" s="2">
+        <v>45575.503472222219</v>
+      </c>
+      <c r="U103" t="s">
+        <v>4</v>
+      </c>
+      <c r="V103" t="s">
+        <v>5</v>
+      </c>
+      <c r="W103" t="s">
+        <v>6</v>
+      </c>
+      <c r="X103" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y103" s="4">
+        <v>55.574375000000003</v>
+      </c>
+      <c r="Z103" s="4">
+        <v>37.193683999999998</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF103" s="3"/>
+      <c r="AG103" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH103" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/resources/converter/artfruit/out/art_fruit_out.xlsx
+++ b/src/test/resources/converter/artfruit/out/art_fruit_out.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\1_PROJECTS\AdvantumConverter\src\test\resources\converter\artfruit\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C984BA-F6B3-4372-8C01-981CA0BEDA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ACFC7D-5012-45DA-8EBF-83FF7BB0F3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Экспорт" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1283,7 @@
         <v>37.673456999999999</v>
       </c>
       <c r="AA2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="s">
         <v>3</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="AF2" s="3"/>
       <c r="AG2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="s">
         <v>3</v>
@@ -1365,7 +1365,7 @@
         <v>37.678800000000003</v>
       </c>
       <c r="AA3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="s">
         <v>3</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="AF3" s="3"/>
       <c r="AG3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="s">
         <v>3</v>
@@ -1447,7 +1447,7 @@
         <v>37.723078999999998</v>
       </c>
       <c r="AA4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
         <v>3</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="s">
         <v>3</v>
@@ -1529,7 +1529,7 @@
         <v>37.726322000000003</v>
       </c>
       <c r="AA5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="s">
         <v>3</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="s">
         <v>3</v>
@@ -1611,7 +1611,7 @@
         <v>37.863199000000002</v>
       </c>
       <c r="AA6" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="s">
         <v>3</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="s">
         <v>3</v>
@@ -1693,7 +1693,7 @@
         <v>37.729008</v>
       </c>
       <c r="AA7" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="s">
         <v>3</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="s">
         <v>3</v>
@@ -1775,7 +1775,7 @@
         <v>37.721701000000003</v>
       </c>
       <c r="AA8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="s">
         <v>3</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="AF8" s="3"/>
       <c r="AG8" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="s">
         <v>3</v>
@@ -1857,7 +1857,7 @@
         <v>37.678325000000001</v>
       </c>
       <c r="AA9" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AB9" t="s">
         <v>3</v>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="s">
         <v>3</v>
@@ -2103,7 +2103,7 @@
         <v>37.490819999999999</v>
       </c>
       <c r="AA12" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="s">
         <v>3</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="AF12" s="3"/>
       <c r="AG12" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s">
         <v>3</v>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="AB13" t="s">
         <v>3</v>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="s">
         <v>3</v>
@@ -2269,7 +2269,7 @@
         <v>37.410556</v>
       </c>
       <c r="AA14" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="s">
         <v>3</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AH14" t="s">
         <v>3</v>
@@ -2353,7 +2353,7 @@
         <v>37.448633999999998</v>
       </c>
       <c r="AA15" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="AB15" t="s">
         <v>3</v>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s">
         <v>3</v>
@@ -2437,7 +2437,7 @@
         <v>37.540084</v>
       </c>
       <c r="AA16" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="AB16" t="s">
         <v>3</v>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s">
         <v>3</v>
@@ -2521,7 +2521,7 @@
         <v>37.601197999999997</v>
       </c>
       <c r="AA17" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="AB17" t="s">
         <v>3</v>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="AH17" t="s">
         <v>3</v>
@@ -2605,7 +2605,7 @@
         <v>37.662649999999999</v>
       </c>
       <c r="AA18" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="s">
         <v>3</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="AH18" t="s">
         <v>3</v>
@@ -2689,7 +2689,7 @@
         <v>37.705665000000003</v>
       </c>
       <c r="AA19" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="s">
         <v>3</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="AH19" t="s">
         <v>3</v>
@@ -2937,7 +2937,7 @@
         <v>37.305636999999997</v>
       </c>
       <c r="AA22" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="AB22" t="s">
         <v>3</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="AH22" t="s">
         <v>3</v>
@@ -3021,7 +3021,7 @@
         <v>37.308416000000001</v>
       </c>
       <c r="AA23" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="AB23" t="s">
         <v>3</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="AH23" t="s">
         <v>3</v>
@@ -3105,7 +3105,7 @@
         <v>41.117542999999998</v>
       </c>
       <c r="AA24" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="AB24" t="s">
         <v>3</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s">
         <v>3</v>
@@ -3189,7 +3189,7 @@
         <v>37.481153999999997</v>
       </c>
       <c r="AA25" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="AB25" t="s">
         <v>3</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s">
         <v>3</v>
@@ -3273,7 +3273,7 @@
         <v>37.377288</v>
       </c>
       <c r="AA26" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="s">
         <v>3</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s">
         <v>3</v>
@@ -3357,7 +3357,7 @@
         <v>37.431809999999999</v>
       </c>
       <c r="AA27" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="s">
         <v>3</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="AF27" s="3"/>
       <c r="AG27" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s">
         <v>3</v>
@@ -3441,7 +3441,7 @@
         <v>37.438619000000003</v>
       </c>
       <c r="AA28" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="AB28" t="s">
         <v>3</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s">
         <v>3</v>
@@ -3525,7 +3525,7 @@
         <v>37.427129999999998</v>
       </c>
       <c r="AA29" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="AB29" t="s">
         <v>3</v>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="AF29" s="3"/>
       <c r="AG29" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s">
         <v>3</v>
@@ -3609,7 +3609,7 @@
         <v>37.425736999999998</v>
       </c>
       <c r="AA30" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="AB30" t="s">
         <v>3</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="AH30" t="s">
         <v>3</v>
@@ -3693,7 +3693,7 @@
         <v>37.429958999999997</v>
       </c>
       <c r="AA31" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="AB31" t="s">
         <v>3</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="AH31" t="s">
         <v>3</v>
@@ -3941,7 +3941,7 @@
         <v>37.518104000000001</v>
       </c>
       <c r="AA34" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="AB34" t="s">
         <v>3</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="AF34" s="3"/>
       <c r="AG34" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AH34" t="s">
         <v>3</v>
@@ -4025,7 +4025,7 @@
         <v>37.624929999999999</v>
       </c>
       <c r="AA35" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="AB35" t="s">
         <v>3</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="AF35" s="3"/>
       <c r="AG35" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="AH35" t="s">
         <v>3</v>
@@ -4109,7 +4109,7 @@
         <v>37.601838000000001</v>
       </c>
       <c r="AA36" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="AB36" t="s">
         <v>3</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="AF36" s="3"/>
       <c r="AG36" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="AH36" t="s">
         <v>3</v>
@@ -4193,7 +4193,7 @@
         <v>37.537964000000002</v>
       </c>
       <c r="AA37" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="AB37" t="s">
         <v>3</v>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="AF37" s="3"/>
       <c r="AG37" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="AH37" t="s">
         <v>3</v>
@@ -4277,7 +4277,7 @@
         <v>37.505947999999997</v>
       </c>
       <c r="AA38" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="AB38" t="s">
         <v>3</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="AH38" t="s">
         <v>3</v>
@@ -4361,7 +4361,7 @@
         <v>37.470686000000001</v>
       </c>
       <c r="AA39" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="AB39" t="s">
         <v>3</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="AH39" t="s">
         <v>3</v>
@@ -4609,7 +4609,7 @@
         <v>37.408479999999997</v>
       </c>
       <c r="AA42" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="AB42" t="s">
         <v>3</v>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="AH42" t="s">
         <v>3</v>
@@ -4857,7 +4857,7 @@
         <v>37.171889</v>
       </c>
       <c r="AA45" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="AB45" t="s">
         <v>3</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="AF45" s="3"/>
       <c r="AG45" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="AH45" t="s">
         <v>3</v>
@@ -4941,7 +4941,7 @@
         <v>37.453448999999999</v>
       </c>
       <c r="AA46" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="AB46" t="s">
         <v>3</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="AF46" s="3"/>
       <c r="AG46" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="AH46" t="s">
         <v>3</v>
@@ -5025,7 +5025,7 @@
         <v>37.428660000000001</v>
       </c>
       <c r="AA47" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="AB47" t="s">
         <v>3</v>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="AF47" s="3"/>
       <c r="AG47" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="AH47" t="s">
         <v>3</v>
@@ -5273,7 +5273,7 @@
         <v>37.894297999999999</v>
       </c>
       <c r="AA50" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="AB50" t="s">
         <v>3</v>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="AF50" s="3"/>
       <c r="AG50" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="AH50" t="s">
         <v>3</v>
@@ -5521,7 +5521,7 @@
         <v>37.576962999999999</v>
       </c>
       <c r="AA53" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="AB53" t="s">
         <v>3</v>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="AH53" t="s">
         <v>3</v>
@@ -5605,7 +5605,7 @@
         <v>37.571649999999998</v>
       </c>
       <c r="AA54" t="s">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="AB54" t="s">
         <v>3</v>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="AF54" s="3"/>
       <c r="AG54" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="AH54" t="s">
         <v>3</v>
@@ -5689,7 +5689,7 @@
         <v>37.521856999999997</v>
       </c>
       <c r="AA55" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="AB55" t="s">
         <v>3</v>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="AF55" s="3"/>
       <c r="AG55" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="AH55" t="s">
         <v>3</v>
@@ -5937,7 +5937,7 @@
         <v>37.652233000000003</v>
       </c>
       <c r="AA58" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
       <c r="AB58" t="s">
         <v>3</v>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="AF58" s="3"/>
       <c r="AG58" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="AH58" t="s">
         <v>3</v>
@@ -6185,7 +6185,7 @@
         <v>36.790616</v>
       </c>
       <c r="AA61" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="AB61" t="s">
         <v>3</v>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="AF61" s="3"/>
       <c r="AG61" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="AH61" t="s">
         <v>3</v>
@@ -6433,7 +6433,7 @@
         <v>37.388717999999997</v>
       </c>
       <c r="AA64" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="AB64" t="s">
         <v>3</v>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="AF64" s="3"/>
       <c r="AG64" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="AH64" t="s">
         <v>3</v>
@@ -6517,7 +6517,7 @@
         <v>37.180309000000001</v>
       </c>
       <c r="AA65" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="AB65" t="s">
         <v>3</v>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="AF65" s="3"/>
       <c r="AG65" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="AH65" t="s">
         <v>3</v>
@@ -6765,7 +6765,7 @@
         <v>37.837443999999998</v>
       </c>
       <c r="AA68" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="AB68" t="s">
         <v>3</v>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="AF68" s="3"/>
       <c r="AG68" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="AH68" t="s">
         <v>3</v>
@@ -6849,7 +6849,7 @@
         <v>38.389432999999997</v>
       </c>
       <c r="AA69" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="AB69" t="s">
         <v>3</v>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="AF69" s="3"/>
       <c r="AG69" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="AH69" t="s">
         <v>3</v>
@@ -7097,7 +7097,7 @@
         <v>38.156230000000001</v>
       </c>
       <c r="AA72" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="AB72" t="s">
         <v>3</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="AF72" s="3"/>
       <c r="AG72" t="s">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="AH72" t="s">
         <v>3</v>
@@ -7261,7 +7261,7 @@
         <v>37.575268999999999</v>
       </c>
       <c r="AA74" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="AB74" t="s">
         <v>3</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="AF74" s="3"/>
       <c r="AG74" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="AH74" t="s">
         <v>3</v>
@@ -7509,7 +7509,7 @@
         <v>37.626564000000002</v>
       </c>
       <c r="AA77" t="s">
-        <v>198</v>
+        <v>3</v>
       </c>
       <c r="AB77" t="s">
         <v>3</v>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="AF77" s="3"/>
       <c r="AG77" t="s">
-        <v>3</v>
+        <v>198</v>
       </c>
       <c r="AH77" t="s">
         <v>3</v>
@@ -7593,7 +7593,7 @@
         <v>37.673726000000002</v>
       </c>
       <c r="AA78" t="s">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="AB78" t="s">
         <v>3</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="AF78" s="3"/>
       <c r="AG78" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="AH78" t="s">
         <v>3</v>
@@ -7841,7 +7841,7 @@
         <v>37.753266000000004</v>
       </c>
       <c r="AA81" t="s">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="AB81" t="s">
         <v>3</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="AF81" s="3"/>
       <c r="AG81" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="AH81" t="s">
         <v>3</v>
@@ -8089,7 +8089,7 @@
         <v>38.306068000000003</v>
       </c>
       <c r="AA84" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="AB84" t="s">
         <v>3</v>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="AF84" s="3"/>
       <c r="AG84" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="AH84" t="s">
         <v>3</v>
@@ -8173,7 +8173,7 @@
         <v>37.424219000000001</v>
       </c>
       <c r="AA85" t="s">
-        <v>216</v>
+        <v>3</v>
       </c>
       <c r="AB85" t="s">
         <v>3</v>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="AF85" s="3"/>
       <c r="AG85" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="AH85" t="s">
         <v>3</v>
@@ -8409,7 +8409,7 @@
         <v>50.298299</v>
       </c>
       <c r="AA88" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="AB88" t="s">
         <v>3</v>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="AF88" s="3"/>
       <c r="AG88" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="AH88" t="s">
         <v>3</v>
@@ -8649,7 +8649,7 @@
         <v>37.473897999999998</v>
       </c>
       <c r="AA91" t="s">
-        <v>226</v>
+        <v>3</v>
       </c>
       <c r="AB91" t="s">
         <v>3</v>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="AF91" s="3"/>
       <c r="AG91" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="AH91" t="s">
         <v>3</v>
@@ -8733,7 +8733,7 @@
         <v>37.472966999999997</v>
       </c>
       <c r="AA92" t="s">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="AB92" t="s">
         <v>3</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="AF92" s="3"/>
       <c r="AG92" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="AH92" t="s">
         <v>3</v>
@@ -8981,7 +8981,7 @@
         <v>37.369717999999999</v>
       </c>
       <c r="AA95" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="AB95" t="s">
         <v>3</v>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="AF95" s="3"/>
       <c r="AG95" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="AH95" t="s">
         <v>3</v>
@@ -9065,7 +9065,7 @@
         <v>37.668835000000001</v>
       </c>
       <c r="AA96" t="s">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="AB96" t="s">
         <v>3</v>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="AF96" s="3"/>
       <c r="AG96" t="s">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="AH96" t="s">
         <v>3</v>
@@ -9313,7 +9313,7 @@
         <v>37.877293000000002</v>
       </c>
       <c r="AA99" t="s">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="AB99" t="s">
         <v>3</v>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="AF99" s="3"/>
       <c r="AG99" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="AH99" t="s">
         <v>3</v>
@@ -9561,7 +9561,7 @@
         <v>37.757269000000001</v>
       </c>
       <c r="AA102" t="s">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="AB102" t="s">
         <v>3</v>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="AF102" s="3"/>
       <c r="AG102" t="s">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="AH102" t="s">
         <v>3</v>
